--- a/report/ipb1-30-sri-ipb2-27b_01262017.xlsx
+++ b/report/ipb1-30-sri-ipb2-27b_01262017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="-270" windowWidth="26835" windowHeight="12525" tabRatio="862" activeTab="7"/>
+    <workbookView xWindow="3240" yWindow="-255" windowWidth="14430" windowHeight="12540" tabRatio="862" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary (2)" sheetId="43" r:id="rId1"/>
@@ -731,11 +731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194090048"/>
-        <c:axId val="194090624"/>
+        <c:axId val="216673664"/>
+        <c:axId val="216674240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194090048"/>
+        <c:axId val="216673664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -766,12 +766,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194090624"/>
+        <c:crossAx val="216674240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194090624"/>
+        <c:axId val="216674240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194090048"/>
+        <c:crossAx val="216673664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208023488"/>
-        <c:axId val="208024064"/>
+        <c:axId val="206557120"/>
+        <c:axId val="206557696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208023488"/>
+        <c:axId val="206557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1168,12 +1168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208024064"/>
+        <c:crossAx val="206557696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208024064"/>
+        <c:axId val="206557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1186,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208023488"/>
+        <c:crossAx val="206557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1547,11 +1547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237408192"/>
-        <c:axId val="237408768"/>
+        <c:axId val="206560000"/>
+        <c:axId val="206560576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237408192"/>
+        <c:axId val="206560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1564,12 +1564,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237408768"/>
+        <c:crossAx val="206560576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237408768"/>
+        <c:axId val="206560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.65000000000000013"/>
@@ -1582,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237408192"/>
+        <c:crossAx val="206560000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,11 +1844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237411072"/>
-        <c:axId val="237411648"/>
+        <c:axId val="206628544"/>
+        <c:axId val="206629120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237411072"/>
+        <c:axId val="206628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1861,12 +1861,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237411648"/>
+        <c:crossAx val="206629120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237411648"/>
+        <c:axId val="206629120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237411072"/>
+        <c:crossAx val="206628544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2113,11 +2113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238339776"/>
-        <c:axId val="238340352"/>
+        <c:axId val="206631424"/>
+        <c:axId val="206632000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238339776"/>
+        <c:axId val="206631424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -2130,12 +2130,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238340352"/>
+        <c:crossAx val="206632000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238340352"/>
+        <c:axId val="206632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238339776"/>
+        <c:crossAx val="206631424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,11 +2392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238342656"/>
-        <c:axId val="238343232"/>
+        <c:axId val="206634304"/>
+        <c:axId val="206823424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238342656"/>
+        <c:axId val="206634304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -2409,12 +2409,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238343232"/>
+        <c:crossAx val="206823424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238343232"/>
+        <c:axId val="206823424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="238342656"/>
+        <c:crossAx val="206634304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2779,11 +2779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201663040"/>
-        <c:axId val="201663616"/>
+        <c:axId val="206825728"/>
+        <c:axId val="206826304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201663040"/>
+        <c:axId val="206825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -2796,12 +2796,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201663616"/>
+        <c:crossAx val="206826304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201663616"/>
+        <c:axId val="206826304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201663040"/>
+        <c:crossAx val="206825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3307,11 +3307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201666496"/>
-        <c:axId val="201667072"/>
+        <c:axId val="206829184"/>
+        <c:axId val="206829760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201666496"/>
+        <c:axId val="206829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,12 +3322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201667072"/>
+        <c:crossAx val="206829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201667072"/>
+        <c:axId val="206829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7"/>
@@ -3339,7 +3339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201666496"/>
+        <c:crossAx val="206829184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3830,11 +3830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201669376"/>
-        <c:axId val="201669952"/>
+        <c:axId val="206897728"/>
+        <c:axId val="206898304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201669376"/>
+        <c:axId val="206897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,12 +3845,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201669952"/>
+        <c:crossAx val="206898304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201669952"/>
+        <c:axId val="206898304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201669376"/>
+        <c:crossAx val="206897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4308,11 +4308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202163904"/>
-        <c:axId val="202164480"/>
+        <c:axId val="206900608"/>
+        <c:axId val="206901184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202163904"/>
+        <c:axId val="206900608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,12 +4323,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202164480"/>
+        <c:crossAx val="206901184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202164480"/>
+        <c:axId val="206901184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4341,7 +4341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202163904"/>
+        <c:crossAx val="206900608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4411,7 +4411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4836,11 +4835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202167360"/>
-        <c:axId val="202167936"/>
+        <c:axId val="206904064"/>
+        <c:axId val="206904640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202167360"/>
+        <c:axId val="206904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -4853,12 +4852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202167936"/>
+        <c:crossAx val="206904640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202167936"/>
+        <c:axId val="206904640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4871,7 +4870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202167360"/>
+        <c:crossAx val="206904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5136,11 +5135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200695808"/>
-        <c:axId val="200696384"/>
+        <c:axId val="217491136"/>
+        <c:axId val="217493440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200695808"/>
+        <c:axId val="217491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -5171,12 +5170,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200696384"/>
+        <c:crossAx val="217493440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200696384"/>
+        <c:axId val="217493440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200695808"/>
+        <c:crossAx val="217491136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5288,7 +5287,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48776818900638658"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5465,16 +5471,16 @@
                   <c:v>2.7826239591836699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8345938117283902</c:v>
+                  <c:v>3.2954989475308598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7303651265432096</c:v>
+                  <c:v>3.8119101543209899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6713897993827098</c:v>
+                  <c:v>4.3332083333333298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5874902685185202</c:v>
+                  <c:v>4.8536692530864203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5489,16 +5495,16 @@
                   <c:v>1.7761545172414017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8273033448276017</c:v>
+                  <c:v>2.1048910000000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2576521034483008</c:v>
+                  <c:v>2.4333268275862032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7108676896552009</c:v>
+                  <c:v>2.7632807586207022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1488426551724018</c:v>
+                  <c:v>3.1016596551724014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5534,19 +5540,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.2310893302469204</c:v>
+                  <c:v>3.0049346327160502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1937364320987696</c:v>
+                  <c:v>3.5719268703703699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2126161790123504</c:v>
+                  <c:v>4.1375040493827102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1661472253086398</c:v>
+                  <c:v>4.7002387592592596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1014325308641908</c:v>
+                  <c:v>5.2584026080246904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,19 +5564,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8374153448276012</c:v>
+                  <c:v>2.0625904137930995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3843991724138007</c:v>
+                  <c:v>2.4619367241378995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9255523793103997</c:v>
+                  <c:v>2.8347926206897007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4393337931035006</c:v>
+                  <c:v>3.2132711379309988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9437829310345016</c:v>
+                  <c:v>3.5894666896552003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,19 +5603,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8054313209876502</c:v>
+                  <c:v>3.16612321604938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7206061851851899</c:v>
+                  <c:v>3.7839056820987702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.59447941049382</c:v>
+                  <c:v>4.38701425617284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4982224475308596</c:v>
+                  <c:v>4.9913148703703696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4215795925925896</c:v>
+                  <c:v>5.5860867469135798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,19 +5627,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0954238275861989</c:v>
+                  <c:v>2.2765245862069001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5134294137930979</c:v>
+                  <c:v>2.7013827931034982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9032362758620991</c:v>
+                  <c:v>3.1325699999999976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2805095172413985</c:v>
+                  <c:v>3.5577414137930994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6474953793103992</c:v>
+                  <c:v>3.9989592413792998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5657,48 +5663,45 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'30-he-q'!$G$45:$G$49</c:f>
+              <c:f>'30-he-q'!$G$46:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.6324746419753096</c:v>
+                  <c:v>3.3816142191358001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4830449907407397</c:v>
+                  <c:v>3.89591198765432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3916950740740699</c:v>
+                  <c:v>4.4445756728395001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2331738333333302</c:v>
+                  <c:v>5.0219711388888904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0095555246913595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'30-he-q'!$U$45:$U$49</c:f>
+              <c:f>'30-he-q'!$U$46:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6964085517240974</c:v>
+                  <c:v>2.1354955517241017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9906614137930987</c:v>
+                  <c:v>2.5013119655171998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3341375517240976</c:v>
+                  <c:v>2.8460754482758013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6039786896551007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9145648965517026</c:v>
+                  <c:v>3.1674934137930997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,11 +5716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205813952"/>
-        <c:axId val="205814528"/>
+        <c:axId val="206939840"/>
+        <c:axId val="206940416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205813952"/>
+        <c:axId val="206939840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.5"/>
@@ -5730,12 +5733,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205814528"/>
+        <c:crossAx val="206940416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205814528"/>
+        <c:axId val="206940416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5748,7 +5751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205813952"/>
+        <c:crossAx val="206939840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6011,16 +6014,16 @@
                   <c:v>0.77103703045101568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5325538617654875</c:v>
+                  <c:v>0.91391398852759409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9438418990165935</c:v>
+                  <c:v>1.0585374413524811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.380717424843398</c:v>
+                  <c:v>1.2062750933641635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7899346190747139</c:v>
+                  <c:v>1.3529098881610087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,16 +6038,16 @@
                   <c:v>1.7761545172414017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8273033448276017</c:v>
+                  <c:v>2.1048910000000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2576521034483008</c:v>
+                  <c:v>2.4333268275862032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7108676896552009</c:v>
+                  <c:v>2.7632807586207022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1488426551724018</c:v>
+                  <c:v>3.1016596551724014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6080,19 +6083,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4274648094170366</c:v>
+                  <c:v>0.91115134306058443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.894003878401175</c:v>
+                  <c:v>1.086064592777114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3921197570414821</c:v>
+                  <c:v>1.2602947490122505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8636013052208953</c:v>
+                  <c:v>1.4330451290611375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3176538775388114</c:v>
+                  <c:v>1.6029877098183907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,19 +6107,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8374153448276012</c:v>
+                  <c:v>2.0625904137930995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3843991724138007</c:v>
+                  <c:v>2.4619367241378995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9255523793103997</c:v>
+                  <c:v>2.8347926206897007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4393337931035006</c:v>
+                  <c:v>3.2132711379309988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9437829310345016</c:v>
+                  <c:v>3.5894666896552003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6143,19 +6146,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0289680719349596</c:v>
+                  <c:v>1.02827559428106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4414813084472331</c:v>
+                  <c:v>1.2319650975816985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.827112145894767</c:v>
+                  <c:v>1.4314114075322653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2322287543821946</c:v>
+                  <c:v>1.6319970630530838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6493729727572819</c:v>
+                  <c:v>1.8270222268110701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,19 +6170,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0954238275861989</c:v>
+                  <c:v>2.2765245862069001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5134294137930979</c:v>
+                  <c:v>2.7013827931034982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9032362758620991</c:v>
+                  <c:v>3.1325699999999976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2805095172413985</c:v>
+                  <c:v>3.5577414137930994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6474953793103992</c:v>
+                  <c:v>3.9989592413792998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6203,48 +6206,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'30-he-q'!$V$45:$V$49</c:f>
+              <c:f>'30-he-q'!$V$46:$V$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9060313984928254</c:v>
+                  <c:v>0.96890266274939663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2734165183419872</c:v>
+                  <c:v>1.1110681650744634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6684979953103554</c:v>
+                  <c:v>1.2746059803331291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0334375144512675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3435047140467358</c:v>
+                  <c:v>1.4554349702530274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'30-he-q'!$U$45:$U$49</c:f>
+              <c:f>'30-he-q'!$U$46:$U$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6964085517240974</c:v>
+                  <c:v>2.1354955517241017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9906614137930987</c:v>
+                  <c:v>2.5013119655171998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3341375517240976</c:v>
+                  <c:v>2.8460754482758013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6039786896551007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9145648965517026</c:v>
+                  <c:v>3.1674934137930997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,11 +6256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208070336"/>
-        <c:axId val="208070912"/>
+        <c:axId val="206942720"/>
+        <c:axId val="206943296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208070336"/>
+        <c:axId val="206942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -6276,12 +6273,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208070912"/>
+        <c:crossAx val="206943296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208070912"/>
+        <c:axId val="206943296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6294,7 +6291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208070336"/>
+        <c:crossAx val="206942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6369,7 +6366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6794,11 +6790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203579392"/>
-        <c:axId val="203579968"/>
+        <c:axId val="206945600"/>
+        <c:axId val="205217792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203579392"/>
+        <c:axId val="206945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.5"/>
@@ -6811,12 +6807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203579968"/>
+        <c:crossAx val="205217792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203579968"/>
+        <c:axId val="205217792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6829,7 +6825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203579392"/>
+        <c:crossAx val="206945600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7340,11 +7336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203582272"/>
-        <c:axId val="203582848"/>
+        <c:axId val="205220096"/>
+        <c:axId val="205220672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203582272"/>
+        <c:axId val="205220096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -7357,12 +7353,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203582848"/>
+        <c:crossAx val="205220672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203582848"/>
+        <c:axId val="205220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -7375,7 +7371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203582272"/>
+        <c:crossAx val="205220096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7618,11 +7614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200698688"/>
-        <c:axId val="200699264"/>
+        <c:axId val="217496320"/>
+        <c:axId val="218554944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200698688"/>
+        <c:axId val="217496320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -7635,12 +7631,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200699264"/>
+        <c:crossAx val="218554944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200699264"/>
+        <c:axId val="218554944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7651,14 +7647,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200698688"/>
+        <c:crossAx val="217496320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7888,11 +7883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200701568"/>
-        <c:axId val="200702720"/>
+        <c:axId val="218557248"/>
+        <c:axId val="218557824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200701568"/>
+        <c:axId val="218557248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -7905,12 +7900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200702720"/>
+        <c:crossAx val="218557824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200702720"/>
+        <c:axId val="218557824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7921,7 +7916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200701568"/>
+        <c:crossAx val="218557248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8149,11 +8144,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202156288"/>
-        <c:axId val="202156864"/>
+        <c:axId val="218560128"/>
+        <c:axId val="218560704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202156288"/>
+        <c:axId val="218560128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -8166,12 +8161,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202156864"/>
+        <c:crossAx val="218560704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202156864"/>
+        <c:axId val="218560704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8182,7 +8177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202156288"/>
+        <c:crossAx val="218560128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8587,11 +8582,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202159168"/>
-        <c:axId val="202159744"/>
+        <c:axId val="205185600"/>
+        <c:axId val="205186176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202159168"/>
+        <c:axId val="205185600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -8604,12 +8599,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202159744"/>
+        <c:crossAx val="205186176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202159744"/>
+        <c:axId val="205186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8620,7 +8615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202159168"/>
+        <c:crossAx val="205185600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9063,11 +9058,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205815808"/>
-        <c:axId val="205816384"/>
+        <c:axId val="205188480"/>
+        <c:axId val="205189056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205815808"/>
+        <c:axId val="205188480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -9080,12 +9075,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205816384"/>
+        <c:crossAx val="205189056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205816384"/>
+        <c:axId val="205189056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9096,7 +9091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205815808"/>
+        <c:crossAx val="205188480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9358,11 +9353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205818688"/>
-        <c:axId val="205819264"/>
+        <c:axId val="205191360"/>
+        <c:axId val="205191936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205818688"/>
+        <c:axId val="205191360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -9375,12 +9370,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205819264"/>
+        <c:crossAx val="205191936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205819264"/>
+        <c:axId val="205191936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9391,14 +9386,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205818688"/>
+        <c:crossAx val="205191360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9616,11 +9610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205822720"/>
-        <c:axId val="205823296"/>
+        <c:axId val="206554240"/>
+        <c:axId val="206554816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205822720"/>
+        <c:axId val="206554240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -9633,12 +9627,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205823296"/>
+        <c:crossAx val="206554816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205823296"/>
+        <c:axId val="206554816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -9651,14 +9645,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205822720"/>
+        <c:crossAx val="206554240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10298,16 +10291,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10330,16 +10323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13327,7 +13320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
@@ -14110,19 +14103,19 @@
         <v>-8.3956272829492899</v>
       </c>
       <c r="AF6" s="31">
-        <f ca="1">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X6+2)</f>
+        <f t="shared" ref="AF6:AH7" ca="1" si="38">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X6+2)</f>
         <v>2.5794046206895995</v>
       </c>
       <c r="AG6" s="31">
-        <f ca="1">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"u"&amp;$X6+2)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>2.5794046206895995</v>
       </c>
       <c r="AH6" s="31">
-        <f ca="1">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"u"&amp;$X6+2)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>2.5794046206895995</v>
       </c>
       <c r="AI6" s="32">
-        <f t="shared" ref="AI6:AI12" ca="1" si="38">INDIRECT("'"&amp;AI$1&amp;"'!"&amp;"AB"&amp;$X6)</f>
+        <f t="shared" ref="AI6:AI12" ca="1" si="39">INDIRECT("'"&amp;AI$1&amp;"'!"&amp;"AB"&amp;$X6)</f>
         <v>0.50204270886118563</v>
       </c>
       <c r="AJ6" s="32">
@@ -14134,7 +14127,7 @@
         <v>0.50204270886118563</v>
       </c>
       <c r="AL6" s="32">
-        <f t="shared" ref="AL6:AL12" ca="1" si="39">INDIRECT("'"&amp;AL$1&amp;"'!"&amp;"AC"&amp;$X6)</f>
+        <f t="shared" ref="AL6:AL12" ca="1" si="40">INDIRECT("'"&amp;AL$1&amp;"'!"&amp;"AC"&amp;$X6)</f>
         <v>2.3166042712908443</v>
       </c>
     </row>
@@ -14202,7 +14195,7 @@
         <v>0.17445525699515407</v>
       </c>
       <c r="Q7" s="39">
-        <f t="shared" ref="Q7:Q12" ca="1" si="40">INDIRECT("'"&amp;Q$1&amp;"'!"&amp;"W"&amp;$A7)</f>
+        <f t="shared" ref="Q7:Q12" ca="1" si="41">INDIRECT("'"&amp;Q$1&amp;"'!"&amp;"W"&amp;$A7)</f>
         <v>7.0101523819701583E-2</v>
       </c>
       <c r="R7" s="39">
@@ -14262,19 +14255,19 @@
         <v>-28.512770008777775</v>
       </c>
       <c r="AF7" s="31">
-        <f ca="1">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X7+2)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>3.3016749310344977</v>
       </c>
       <c r="AG7" s="31">
-        <f ca="1">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"u"&amp;$X7+2)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>3.3016749310344977</v>
       </c>
       <c r="AH7" s="31">
-        <f ca="1">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"u"&amp;$X7+2)</f>
+        <f t="shared" ca="1" si="38"/>
         <v>3.3016749310344977</v>
       </c>
       <c r="AI7" s="32">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.65540571377099577</v>
       </c>
       <c r="AJ7" s="32">
@@ -14286,7 +14279,7 @@
         <v>0.65540571377099577</v>
       </c>
       <c r="AL7" s="32">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>2.2171591674220883</v>
       </c>
     </row>
@@ -14296,11 +14289,11 @@
         <v>275</v>
       </c>
       <c r="C8" s="52">
-        <f t="shared" ref="C8:D8" ca="1" si="41">0.5*(C7+C9)</f>
+        <f t="shared" ref="C8:D8" ca="1" si="42">0.5*(C7+C9)</f>
         <v>5.1173626896552005</v>
       </c>
       <c r="D8" s="52">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1.8267191282097899</v>
       </c>
       <c r="E8" s="52">
@@ -14320,63 +14313,63 @@
         <v>0.96171950161566588</v>
       </c>
       <c r="I8" s="52">
-        <f t="shared" ref="I8:W8" ca="1" si="42">0.5*(I7+I9)</f>
+        <f t="shared" ref="I8:W8" ca="1" si="43">0.5*(I7+I9)</f>
         <v>3.6122322931034505</v>
       </c>
       <c r="J8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>1.8217193573266168</v>
       </c>
       <c r="K8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>3.0853408539661724</v>
       </c>
       <c r="L8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.49426578784640229</v>
       </c>
       <c r="M8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.16029563654187279</v>
       </c>
       <c r="N8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>1.8217193573266168</v>
       </c>
       <c r="O8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>3.0853408539661724</v>
       </c>
       <c r="P8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.17608138216350189</v>
       </c>
       <c r="Q8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>6.5547057542254983E-2</v>
       </c>
       <c r="R8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>359</v>
       </c>
       <c r="S8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.16029563654187279</v>
       </c>
       <c r="T8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>1.8987088275862014</v>
       </c>
       <c r="U8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.16029563654187279</v>
       </c>
       <c r="V8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.93156527282770873</v>
       </c>
       <c r="W8" s="52">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="43"/>
         <v>7.1408102413793095</v>
       </c>
       <c r="Y8" s="31"/>
@@ -14384,7 +14377,7 @@
       <c r="AA8" s="49"/>
       <c r="AB8" s="31"/>
       <c r="AC8" s="52">
-        <f t="shared" ref="AC8" ca="1" si="43">0.5*(AC7+AC9)</f>
+        <f t="shared" ref="AC8" ca="1" si="44">0.5*(AC7+AC9)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="31"/>
@@ -14461,7 +14454,7 @@
         <v>0.1777075073318497</v>
       </c>
       <c r="Q9" s="39">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>6.0992591264808382E-2</v>
       </c>
       <c r="R9" s="39">
@@ -14533,7 +14526,7 @@
         <v>3.9255523793103997</v>
       </c>
       <c r="AI9" s="32">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0.77103703045101568</v>
       </c>
       <c r="AJ9" s="32">
@@ -14545,8 +14538,8 @@
         <v>0.77103703045101568</v>
       </c>
       <c r="AL9" s="32">
-        <f t="shared" ca="1" si="39"/>
-        <v>1.4703114768057985</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>2.2727337034388246</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -14555,11 +14548,11 @@
         <v>325</v>
       </c>
       <c r="C10" s="52">
-        <f t="shared" ref="C10:D10" ca="1" si="44">0.5*(C9+C11)</f>
+        <f t="shared" ref="C10:D10" ca="1" si="45">0.5*(C9+C11)</f>
         <v>5.1990230172414016</v>
       </c>
       <c r="D10" s="52">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="45"/>
         <v>1.9593297762700774</v>
       </c>
       <c r="E10" s="52">
@@ -14579,63 +14572,63 @@
         <v>0.9586831771773473</v>
       </c>
       <c r="I10" s="52">
-        <f t="shared" ref="I10:W10" ca="1" si="45">0.5*(I9+I11)</f>
+        <f t="shared" ref="I10:W10" ca="1" si="46">0.5*(I9+I11)</f>
         <v>3.8197281551724007</v>
       </c>
       <c r="J10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>1.9557261532029457</v>
       </c>
       <c r="K10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>3.0099779080283473</v>
       </c>
       <c r="L10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.52973773421157633</v>
       </c>
       <c r="M10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.1760434125385516</v>
       </c>
       <c r="N10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>1.9557261532029457</v>
       </c>
       <c r="O10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>3.0099779080283473</v>
       </c>
       <c r="P10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.14212098518589689</v>
       </c>
       <c r="Q10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>3.8899834559244839E-2</v>
       </c>
       <c r="R10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>359</v>
       </c>
       <c r="S10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>1.0858754605825776</v>
       </c>
       <c r="T10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>2.0543620172413508</v>
       </c>
       <c r="U10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.1760434125385516</v>
       </c>
       <c r="V10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.92958664936587465</v>
       </c>
       <c r="W10" s="52">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="46"/>
         <v>7.1286381551724149</v>
       </c>
       <c r="Y10" s="31"/>
@@ -14643,7 +14636,7 @@
       <c r="AA10" s="49"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="52">
-        <f t="shared" ref="AC10" ca="1" si="46">0.5*(AC9+AC11)</f>
+        <f t="shared" ref="AC10" ca="1" si="47">0.5*(AC9+AC11)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="31"/>
@@ -14720,7 +14713,7 @@
         <v>0.10653446303994407</v>
       </c>
       <c r="Q11" s="39">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1.6807077853681296E-2</v>
       </c>
       <c r="R11" s="39">
@@ -14780,32 +14773,32 @@
         <v>10.017002855769059</v>
       </c>
       <c r="AF11" s="31">
-        <f ca="1">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X11+2)</f>
+        <f t="shared" ref="AF11:AH12" ca="1" si="48">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X11+2)</f>
         <v>2.9032362758620991</v>
       </c>
       <c r="AG11" s="31">
-        <f ca="1">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"u"&amp;$X11+2)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>2.9032362758620991</v>
       </c>
       <c r="AH11" s="31">
-        <f ca="1">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"u"&amp;$X11+2)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>2.9032362758620991</v>
       </c>
       <c r="AI11" s="32">
-        <f t="shared" ca="1" si="38"/>
-        <v>2.4274648094170366</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>0.91115134306058443</v>
       </c>
       <c r="AJ11" s="32">
         <f ca="1">INDIRECT("'"&amp;AJ$1&amp;"'!"&amp;"AA"&amp;$X11)</f>
-        <v>7.1696563627996746</v>
+        <v>9.9724079177246878</v>
       </c>
       <c r="AK11" s="32">
         <f ca="1">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"V"&amp;$X11)</f>
-        <v>2.4274648094170366</v>
+        <v>0.91115134306058443</v>
       </c>
       <c r="AL11" s="32">
-        <f t="shared" ca="1" si="39"/>
-        <v>1.1089535731565885</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>2.1986648997378939</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -14872,7 +14865,7 @@
         <v>0.13891902935688272</v>
       </c>
       <c r="Q12" s="39">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="41"/>
         <v>3.3539119184982091E-2</v>
       </c>
       <c r="R12" s="39">
@@ -14900,7 +14893,7 @@
         <v>7.45611082758621</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" ref="X12" si="47">X11+7</f>
+        <f t="shared" ref="X12" si="49">X11+7</f>
         <v>38</v>
       </c>
       <c r="Y12" s="31">
@@ -14932,32 +14925,32 @@
         <v>-31.933309132421726</v>
       </c>
       <c r="AF12" s="31">
-        <f ca="1">INDIRECT("'"&amp;AF$1&amp;"'!"&amp;"u"&amp;$X12+2)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>2.3341375517240976</v>
       </c>
       <c r="AG12" s="31">
-        <f ca="1">INDIRECT("'"&amp;AG$1&amp;"'!"&amp;"u"&amp;$X12+2)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>2.3341375517240976</v>
       </c>
       <c r="AH12" s="31">
-        <f ca="1">INDIRECT("'"&amp;AH$1&amp;"'!"&amp;"u"&amp;$X12+2)</f>
+        <f t="shared" ca="1" si="48"/>
         <v>2.3341375517240976</v>
       </c>
       <c r="AI12" s="32">
-        <f t="shared" ca="1" si="38"/>
-        <v>2.0289680719349596</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>1.02827559428106</v>
       </c>
       <c r="AJ12" s="32">
         <f ca="1">INDIRECT("'"&amp;AJ$1&amp;"'!"&amp;"AA"&amp;$X12)</f>
-        <v>6.7011132115982583</v>
+        <v>10.409894777641064</v>
       </c>
       <c r="AK12" s="32">
         <f ca="1">INDIRECT("'"&amp;AK$1&amp;"'!"&amp;"V"&amp;$X12)</f>
-        <v>2.0289680719349596</v>
+        <v>1.02827559428106</v>
       </c>
       <c r="AL12" s="32">
-        <f t="shared" ca="1" si="39"/>
-        <v>0.95998599185430078</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>2.1530697087681303</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -20650,10 +20643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20887,7 +20880,7 @@
         <v>42753.7033912037</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="AA9" s="23">
         <v>0.93</v>
@@ -20978,7 +20971,7 @@
       </c>
       <c r="Z10" s="1">
         <f>(J10-$J$9)-((P10-$P$9)/$Z$9+(Q10-$Q$9)/$AA$9)</f>
-        <v>8.6786586108211843</v>
+        <v>4.5967456326610794</v>
       </c>
       <c r="AA10" s="1">
         <f>(J10-$J$9)-(P10-$P$9)/$AA$9</f>
@@ -20994,15 +20987,15 @@
       </c>
       <c r="AD10" s="1">
         <f>AB10/Z10</f>
-        <v>5.7847961462063065E-2</v>
+        <v>0.10921698718633481</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10:AE49" si="0">B10/A10</f>
+        <f t="shared" ref="AE10:AE50" si="0">B10/A10</f>
         <v>0.92378668959766852</v>
       </c>
       <c r="AF10" s="7">
         <f>INDEX(LINEST(U10:U14,Z10:Z14),1)</f>
-        <v>0.24090716932881565</v>
+        <v>1.5642893594024097</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -21071,12 +21064,12 @@
         <v>1.9979739999999993</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" ref="V11:V49" si="2">(H11-I11)^2</f>
+        <f t="shared" ref="V11:V50" si="2">(H11-I11)^2</f>
         <v>0.59213236850189499</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" ref="Z11:Z14" si="3">(J11-$J$9)-((P11-$P$9)/$Z$9+(Q11-$Q$9)/$AA$9)</f>
-        <v>9.5274893638080727</v>
+        <v>4.6138262725456194</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ref="AA11:AA14" si="4">(J11-$J$9)-(P11-$P$9)/$AA$9</f>
@@ -21088,7 +21081,7 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" ref="AD11:AD14" si="5">AB11/Z11</f>
-        <v>6.2149885021254299E-2</v>
+        <v>0.12833867890201109</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="0"/>
@@ -21166,7 +21159,7 @@
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="3"/>
-        <v>10.443549946444517</v>
+        <v>4.7152235043258344</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="4"/>
@@ -21178,7 +21171,7 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="5"/>
-        <v>6.6511105008398519E-2</v>
+        <v>0.14731264520359974</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="0"/>
@@ -21256,7 +21249,7 @@
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="3"/>
-        <v>11.307952462739401</v>
+        <v>4.7612604324088466</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="4"/>
@@ -21268,7 +21261,7 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="5"/>
-        <v>6.9857162744818235E-2</v>
+        <v>0.16591015902497111</v>
       </c>
       <c r="AE13" s="1">
         <f t="shared" si="0"/>
@@ -21346,7 +21339,7 @@
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="3"/>
-        <v>12.439411735240377</v>
+        <v>5.098255394276606</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="4"/>
@@ -21358,7 +21351,7 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="5"/>
-        <v>7.1411789728387451E-2</v>
+        <v>0.17424012460793273</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" si="0"/>
@@ -21579,8 +21572,8 @@
         <v>3.4588046570423359E-2</v>
       </c>
       <c r="Z17" s="1">
-        <f>(J17-$J$9)-((P17-$P$9)/$Z$9+(Q17-$Q$9)/$AA$9)</f>
-        <v>8.0497188869395977</v>
+        <f>(J17-$J$16)-((P17-$P$16)/$Z$9+(Q17-$Q$16)/$AA$9)</f>
+        <v>2.9121499227564982</v>
       </c>
       <c r="AA17" s="1">
         <f>(J17-$J$9)-(P17-$P$16)/$AA$9</f>
@@ -21596,7 +21589,7 @@
       </c>
       <c r="AD17" s="1">
         <f>AB17/Z17</f>
-        <v>8.1419702100947872E-2</v>
+        <v>0.22505905642063265</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" si="0"/>
@@ -21604,7 +21597,7 @@
       </c>
       <c r="AF17" s="7">
         <f>INDEX(LINEST(U17:U21,Z17:Z21),1)</f>
-        <v>0.21215815205702496</v>
+        <v>0.49549590377462066</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -21677,8 +21670,8 @@
         <v>0.77964463260649608</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ref="Z18:Z21" si="7">(J18-$J$9)-((P18-$P$9)/$Z$9+(Q18-$Q$9)/$AA$9)</f>
-        <v>9.2586292296650008</v>
+        <f t="shared" ref="Z18:Z21" si="7">(J18-$J$16)-((P18-$P$16)/$Z$9+(Q18-$Q$16)/$AA$9)</f>
+        <v>3.3365186111609191</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA21" si="8">(J18-$J$9)-(P18-$P$16)/$AA$9</f>
@@ -21690,7 +21683,7 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" ref="AD18:AD21" si="9">AB18/Z18</f>
-        <v>8.4207350058741415E-2</v>
+        <v>0.23367009852680665</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" si="0"/>
@@ -21768,7 +21761,7 @@
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="7"/>
-        <v>10.589581232489664</v>
+        <v>3.8940114539353345</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="8"/>
@@ -21780,7 +21773,7 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="9"/>
-        <v>8.5324105152564875E-2</v>
+        <v>0.23203489596555774</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" si="0"/>
@@ -21858,7 +21851,7 @@
       </c>
       <c r="Z20" s="1">
         <f t="shared" si="7"/>
-        <v>11.892407216854604</v>
+        <v>4.4252192124484822</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="8"/>
@@ -21870,7 +21863,7 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="9"/>
-        <v>8.644181397637643E-2</v>
+        <v>0.23230515891253831</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" si="0"/>
@@ -21948,7 +21941,7 @@
       </c>
       <c r="Z21" s="1">
         <f t="shared" si="7"/>
-        <v>13.414758492508341</v>
+        <v>5.2010126569592501</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="8"/>
@@ -21960,7 +21953,7 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="9"/>
-        <v>8.7297159543646183E-2</v>
+        <v>0.22516198086790362</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="0"/>
@@ -22170,19 +22163,19 @@
       </c>
       <c r="W24" s="1">
         <f>INDEX(LINEST(U24:U28,V24:V28),1)</f>
-        <v>1.4703114768057985</v>
+        <v>2.2727337034388246</v>
       </c>
       <c r="X24" s="1">
         <f>INDEX(LINEST(U24:U28,G24:G28),1)</f>
-        <v>0.76243215504925943</v>
+        <v>0.63890701245853898</v>
       </c>
       <c r="Y24" s="1">
         <f>INDEX(LINEST(U24:U28,G24:G28),2)</f>
-        <v>-7.5392672363292057E-2</v>
+        <v>-1.8118460166860473E-3</v>
       </c>
       <c r="Z24" s="1">
-        <f>(J24-$J$9)-((P24-$P$9)/$Z$9+(Q24-$Q$9)/$AA$9)</f>
-        <v>8.7680900050545958</v>
+        <f>(J24-$J$23)-((P24-$P$23)/$Z$9+(Q24-$Q$23)/$AA$9)</f>
+        <v>3.4742460358297578</v>
       </c>
       <c r="AA24" s="1">
         <f>(J24-$J$9)-(P24-$P$23)/$AA$9</f>
@@ -22194,11 +22187,11 @@
       </c>
       <c r="AC24" s="7">
         <f>INDEX(LINEST(U24:U28,AB24:AB28),1)</f>
-        <v>1.4703114768057985</v>
+        <v>2.2727337034388246</v>
       </c>
       <c r="AD24" s="1">
         <f>AB24/Z24</f>
-        <v>8.7936714838297861E-2</v>
+        <v>0.22192931142450539</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" si="0"/>
@@ -22206,48 +22199,48 @@
       </c>
       <c r="AF24" s="7">
         <f>INDEX(LINEST(U24:U28,Z24:Z28),1)</f>
-        <v>0.6664985017866385</v>
+        <v>-1.0311055251236438</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>250.00193110344799</v>
+        <v>275.00044724137899</v>
       </c>
       <c r="B25">
-        <v>232.33411962068999</v>
+        <v>252.54196693103501</v>
       </c>
       <c r="C25">
-        <v>25.459374241379301</v>
+        <v>25.3546833103448</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
       <c r="E25">
-        <v>36.222620515691602</v>
+        <v>34.483385439417802</v>
       </c>
       <c r="F25">
-        <v>16.3642094827586</v>
+        <v>19.0866218275862</v>
       </c>
       <c r="G25">
-        <v>5.8345938117283902</v>
+        <v>3.2954989475308598</v>
       </c>
       <c r="H25">
-        <v>7.6573203086419799</v>
+        <v>6.8039332592592601</v>
       </c>
       <c r="I25">
-        <v>6.0659203395061603</v>
+        <v>5.84794477160494</v>
       </c>
       <c r="J25">
-        <v>34.029614398148198</v>
+        <v>34.920277083333303</v>
       </c>
       <c r="K25">
-        <v>39.116361706790101</v>
+        <v>34.537962962963</v>
       </c>
       <c r="L25">
-        <v>300.08813395061702</v>
+        <v>300</v>
       </c>
       <c r="M25">
-        <v>7.92151387947546E-2</v>
+        <v>7.6365837929966096E-2</v>
       </c>
       <c r="N25">
         <v>300</v>
@@ -22256,10 +22249,10 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>18.734976648148201</v>
+        <v>17.312884922839501</v>
       </c>
       <c r="Q25">
-        <v>0.22488060802469101</v>
+        <v>1.1116155277777799</v>
       </c>
       <c r="R25">
         <v>17</v>
@@ -22268,76 +22261,76 @@
         <v>359</v>
       </c>
       <c r="T25" s="6">
-        <v>42743.224004629628</v>
+        <v>42754.453518518516</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ref="U25:U28" si="10">$F$23-F25</f>
-        <v>4.8273033448276017</v>
+        <v>2.1048910000000021</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="2"/>
-        <v>2.5325538617654875</v>
+        <v>0.91391398852759409</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ref="Z25:Z28" si="11">(J25-$J$9)-((P25-$P$9)/$Z$9+(Q25-$Q$9)/$AA$9)</f>
-        <v>7.6995508295255739</v>
+        <f>(J25-$J$23)-((P25-$P$23)/$Z$9+(Q25-$Q$23)/$AA$9)</f>
+        <v>2.881529899658144</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" ref="AA25:AA28" si="12">(J25-$J$9)-(P25-$P$23)/$AA$9</f>
-        <v>8.8342714113858953</v>
+        <f t="shared" ref="AA25:AA28" si="11">(J25-$J$9)-(P25-$P$23)/$AA$9</f>
+        <v>11.254064983999708</v>
       </c>
       <c r="AB25" s="1">
         <f>(H25-I25)^2</f>
-        <v>2.5325538617654875</v>
+        <v>0.91391398852759409</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" ref="AD25:AD28" si="13">AB25/Z25</f>
-        <v>0.32892228622660274</v>
+        <f t="shared" ref="AD25:AD28" si="12">AB25/Z25</f>
+        <v>0.31716276434820895</v>
       </c>
       <c r="AE25" s="1">
         <f t="shared" si="0"/>
-        <v>0.92932929995869806</v>
+        <v>0.91833293168926644</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>250.00194793103401</v>
+        <v>274.99997268965501</v>
       </c>
       <c r="B26">
-        <v>232.29809782758599</v>
+        <v>252.55389662069001</v>
       </c>
       <c r="C26">
-        <v>25.462127896551699</v>
+        <v>25.389749103448299</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>37.375927979187203</v>
+        <v>35.5566730210979</v>
       </c>
       <c r="F26">
-        <v>15.933860724137901</v>
+        <v>18.758185999999998</v>
       </c>
       <c r="G26">
-        <v>6.7303651265432096</v>
+        <v>3.8119101543209899</v>
       </c>
       <c r="H26">
-        <v>8.2064967253086394</v>
+        <v>7.3140478364197596</v>
       </c>
       <c r="I26">
-        <v>6.4907339506172796</v>
+        <v>6.2851953487654404</v>
       </c>
       <c r="J26">
-        <v>38.731896444444402</v>
+        <v>39.8929103425926</v>
       </c>
       <c r="K26">
-        <v>44.415368925925897</v>
+        <v>39.810185185185198</v>
       </c>
       <c r="L26">
-        <v>300.130540123456</v>
+        <v>300</v>
       </c>
       <c r="M26">
-        <v>8.2330579805934501E-2</v>
+        <v>7.89675659486576E-2</v>
       </c>
       <c r="N26">
         <v>300</v>
@@ -22346,10 +22339,10 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>21.909158067901199</v>
+        <v>20.388765049382702</v>
       </c>
       <c r="Q26">
-        <v>0.68960775925925999</v>
+        <v>1.94993436728395</v>
       </c>
       <c r="R26">
         <v>18</v>
@@ -22358,76 +22351,76 @@
         <v>359</v>
       </c>
       <c r="T26" s="6">
-        <v>42743.2656712963</v>
+        <v>42754.495185185187</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="10"/>
-        <v>5.2576521034483008</v>
+        <v>2.4333268275862032</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="2"/>
-        <v>2.9438418990165935</v>
+        <v>1.0585374413524811</v>
       </c>
       <c r="Z26" s="1">
+        <f>(J26-$J$23)-((P26-$P$23)/$Z$9+(Q26-$Q$23)/$AA$9)</f>
+        <v>2.8515715498639551</v>
+      </c>
+      <c r="AA26" s="1">
         <f t="shared" si="11"/>
-        <v>8.4890279607813781</v>
-      </c>
-      <c r="AA26" s="1">
-        <f t="shared" si="12"/>
-        <v>10.123455156872421</v>
+        <v>12.919300257728679</v>
       </c>
       <c r="AB26" s="1">
         <f>(H26-I26)^2</f>
-        <v>2.9438418990165935</v>
+        <v>1.0585374413524811</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="13"/>
-        <v>0.34678197699629509</v>
+        <f t="shared" si="12"/>
+        <v>0.37121195202097684</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" si="0"/>
-        <v>0.92918515135597324</v>
+        <v>0.91837789709784445</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>250.001055482759</v>
+        <v>275.00053148275902</v>
       </c>
       <c r="B27">
-        <v>232.25412248275899</v>
+        <v>252.54895979310299</v>
       </c>
       <c r="C27">
-        <v>25.460958896551698</v>
+        <v>25.406337379310301</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <v>38.819633677874499</v>
+        <v>36.922740466206797</v>
       </c>
       <c r="F27">
-        <v>15.480645137931001</v>
+        <v>18.428232068965499</v>
       </c>
       <c r="G27">
-        <v>7.6713897993827098</v>
+        <v>4.3332083333333298</v>
       </c>
       <c r="H27">
-        <v>8.7453065679012294</v>
+        <v>7.7907893919753004</v>
       </c>
       <c r="I27">
-        <v>6.9066338333333297</v>
+        <v>6.6924838364197603</v>
       </c>
       <c r="J27">
-        <v>43.637586206790097</v>
+        <v>44.816162271604902</v>
       </c>
       <c r="K27">
-        <v>49.793502234567903</v>
+        <v>44.895370370370202</v>
       </c>
       <c r="L27">
-        <v>300.25021512345597</v>
+        <v>300</v>
       </c>
       <c r="M27">
-        <v>8.6033382111633999E-2</v>
+        <v>8.2020178822866802E-2</v>
       </c>
       <c r="N27">
         <v>300</v>
@@ -22436,10 +22429,10 @@
         <v>1</v>
       </c>
       <c r="P27">
-        <v>25.238755922839498</v>
+        <v>23.6797779351852</v>
       </c>
       <c r="Q27">
-        <v>1.1558038518518501</v>
+        <v>2.9642388580246899</v>
       </c>
       <c r="R27">
         <v>19</v>
@@ -22448,76 +22441,76 @@
         <v>359</v>
       </c>
       <c r="T27" s="6">
-        <v>42743.307337962964</v>
+        <v>42754.536851851852</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="10"/>
-        <v>5.7108676896552009</v>
+        <v>2.7632807586207022</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" si="2"/>
-        <v>3.380717424843398</v>
+        <v>1.2062750933641635</v>
       </c>
       <c r="Z27" s="1">
+        <f t="shared" ref="Z25:Z28" si="13">(J27-$J$23)-((P27-$P$23)/$Z$9+(Q27-$Q$23)/$AA$9)</f>
+        <v>2.2961563077624518</v>
+      </c>
+      <c r="AA27" s="1">
         <f t="shared" si="11"/>
-        <v>9.3132188548142985</v>
-      </c>
-      <c r="AA27" s="1">
-        <f t="shared" si="12"/>
-        <v>11.44893217197264</v>
+        <v>14.303828653620023</v>
       </c>
       <c r="AB27" s="1">
         <f>(H27-I27)^2</f>
-        <v>3.380717424843398</v>
+        <v>1.2062750933641635</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="13"/>
-        <v>0.36300203802209563</v>
+        <f t="shared" si="12"/>
+        <v>0.52534537360814482</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" si="0"/>
-        <v>0.9290125677040435</v>
+        <v>0.91835807891497256</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>249.999549103448</v>
+        <v>274.99970534482799</v>
       </c>
       <c r="B28">
-        <v>232.22534975862101</v>
+        <v>252.55427296551699</v>
       </c>
       <c r="C28">
-        <v>25.4632234827586</v>
+        <v>25.4096397241379</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28">
-        <v>40.455282534346999</v>
+        <v>38.480830217883401</v>
       </c>
       <c r="F28">
-        <v>15.0426701724138</v>
+        <v>18.0898531724138</v>
       </c>
       <c r="G28">
-        <v>8.5874902685185202</v>
+        <v>4.8536692530864203</v>
       </c>
       <c r="H28">
-        <v>9.2456878179012296</v>
+        <v>8.2419610740740694</v>
       </c>
       <c r="I28">
-        <v>7.2989123765432096</v>
+        <v>7.0788145277777703</v>
       </c>
       <c r="J28">
-        <v>48.499077379629597</v>
+        <v>49.822235626543197</v>
       </c>
       <c r="K28">
-        <v>55.388935944444398</v>
+        <v>50.0481481481483</v>
       </c>
       <c r="L28">
-        <v>300.26575648148099</v>
+        <v>300</v>
       </c>
       <c r="M28">
-        <v>9.0111794303389503E-2</v>
+        <v>8.5594590088876807E-2</v>
       </c>
       <c r="N28">
         <v>300</v>
@@ -22526,10 +22519,10 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>28.494676487654299</v>
+        <v>26.815131503086398</v>
       </c>
       <c r="Q28">
-        <v>1.6529715308641999</v>
+        <v>3.6358667901234498</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -22538,55 +22531,55 @@
         <v>359</v>
       </c>
       <c r="T28" s="6">
-        <v>42743.349004629628</v>
+        <v>42754.578518518516</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" si="10"/>
-        <v>6.1488426551724018</v>
+        <v>3.1016596551724014</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="2"/>
-        <v>3.7899346190747139</v>
+        <v>1.3529098881610087</v>
       </c>
       <c r="Z28" s="1">
+        <f t="shared" si="13"/>
+        <v>2.3995776666832853</v>
+      </c>
+      <c r="AA28" s="1">
         <f t="shared" si="11"/>
-        <v>10.139131270850406</v>
-      </c>
-      <c r="AA28" s="1">
-        <f t="shared" si="12"/>
-        <v>12.809433490172559</v>
+        <v>15.938554086083911</v>
       </c>
       <c r="AB28" s="1">
         <f>(H28-I28)^2</f>
-        <v>3.7899346190747139</v>
+        <v>1.3529098881610087</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="13"/>
-        <v>0.37379283469488389</v>
+        <f t="shared" si="12"/>
+        <v>0.56381166858875253</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" si="0"/>
-        <v>0.92890307439125752</v>
+        <v>0.91838015843992926</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>249.99968213793099</v>
+        <v>274.99953262068999</v>
       </c>
       <c r="B29">
-        <v>232.606866206897</v>
+        <v>252.503331206897</v>
       </c>
       <c r="C29">
-        <v>25.454579758620699</v>
+        <v>25.337240758620698</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29">
-        <v>39.0900618881602</v>
+        <v>36.715856571354998</v>
       </c>
       <c r="F29">
-        <v>19.218565482758599</v>
+        <v>21.184468586206901</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -22598,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.73237855555556</v>
+        <v>2.8883796141975302</v>
       </c>
       <c r="K29">
-        <v>3.3424467469135801</v>
+        <v>0.67777777777777803</v>
       </c>
       <c r="L29">
-        <v>300.01012160493798</v>
+        <v>300</v>
       </c>
       <c r="M29">
-        <v>8.6450733267351101E-2</v>
+        <v>8.2077368516128998E-2</v>
       </c>
       <c r="N29">
         <v>300</v>
@@ -22616,10 +22609,10 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <v>-2.3665515030864199</v>
+        <v>-1.1811990061728399</v>
       </c>
       <c r="Q29">
-        <v>-2.69629583950617</v>
+        <v>-0.51354605246913598</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -22628,7 +22621,7 @@
         <v>359</v>
       </c>
       <c r="T29" s="6">
-        <v>42743.3906712963</v>
+        <v>42754.620185185187</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
@@ -22637,22 +22630,22 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>300.00002420689702</v>
+        <v>299.99983048275902</v>
       </c>
       <c r="B30">
-        <v>278.59898534482801</v>
+        <v>275.15163127586197</v>
       </c>
       <c r="C30">
-        <v>25.5264099310345</v>
+        <v>25.3848672413793</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30">
-        <v>36.663962264116201</v>
+        <v>34.4440062655395</v>
       </c>
       <c r="F30">
-        <v>24.953056862069001</v>
+        <v>24.0364797586207</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -22664,16 +22657,16 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.7303408518518499</v>
+        <v>2.8967101172839498</v>
       </c>
       <c r="K30">
-        <v>3.4204147268518499</v>
+        <v>0.65092592592591902</v>
       </c>
       <c r="L30">
-        <v>300.01090462963202</v>
+        <v>300</v>
       </c>
       <c r="M30">
-        <v>7.9938548047188002E-2</v>
+        <v>7.5857094546320503E-2</v>
       </c>
       <c r="N30">
         <v>300</v>
@@ -22682,10 +22675,10 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>-2.53283645524691</v>
+        <v>-1.53450951234568</v>
       </c>
       <c r="Q30">
-        <v>-2.7561761558642002</v>
+        <v>-1.15089848919753</v>
       </c>
       <c r="R30">
         <v>22</v>
@@ -22694,7 +22687,7 @@
         <v>719</v>
       </c>
       <c r="T30" s="6">
-        <v>42743.474004629628</v>
+        <v>42754.703518518516</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -22703,43 +22696,43 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>299.99972948275899</v>
+        <v>299.99961168965501</v>
       </c>
       <c r="B31">
-        <v>278.33410334482801</v>
+        <v>275.07913624137899</v>
       </c>
       <c r="C31">
-        <v>25.5364115517241</v>
+        <v>25.394758413793099</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
       <c r="E31">
-        <v>36.956424729762098</v>
+        <v>34.672470968699599</v>
       </c>
       <c r="F31">
-        <v>22.1156415172414</v>
+        <v>21.973889344827601</v>
       </c>
       <c r="G31">
-        <v>5.2310893302469204</v>
+        <v>3.0049346327160502</v>
       </c>
       <c r="H31">
-        <v>7.1112121851851899</v>
+        <v>6.2956534475308601</v>
       </c>
       <c r="I31">
-        <v>5.5531798333333304</v>
+        <v>5.3411109691357996</v>
       </c>
       <c r="J31">
-        <v>28.957073787037</v>
+        <v>29.875817216049398</v>
       </c>
       <c r="K31">
-        <v>33.495373679012403</v>
+        <v>29.480555555555501</v>
       </c>
       <c r="L31">
-        <v>300.08305679012301</v>
+        <v>300</v>
       </c>
       <c r="M31">
-        <v>8.0845692876863495E-2</v>
+        <v>7.6525721394175697E-2</v>
       </c>
       <c r="N31">
         <v>300</v>
@@ -22748,10 +22741,10 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>15.042265660493801</v>
+        <v>14.288465046296301</v>
       </c>
       <c r="Q31">
-        <v>-0.163743296296296</v>
+        <v>1.08132561419753</v>
       </c>
       <c r="R31">
         <v>23</v>
@@ -22760,96 +22753,96 @@
         <v>359</v>
       </c>
       <c r="T31" s="6">
-        <v>42743.5156712963</v>
+        <v>42754.745185185187</v>
       </c>
       <c r="U31" s="1">
         <f>$F$30-F31</f>
-        <v>2.8374153448276012</v>
+        <v>2.0625904137930995</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="2"/>
-        <v>2.4274648094170366</v>
+        <v>0.91115134306058443</v>
       </c>
       <c r="W31" s="1">
         <f>INDEX(LINEST(U31:U35,V31:V35),1)</f>
-        <v>1.1089535731565885</v>
+        <v>2.1986648997378939</v>
       </c>
       <c r="X31" s="1">
         <f>INDEX(LINEST(U31:U35,G31:G35),1)</f>
-        <v>0.54232711898540698</v>
+        <v>0.67523955639099498</v>
       </c>
       <c r="Y31" s="1">
         <f>INDEX(LINEST(U31:U35,G31:G35),2)</f>
-        <v>1.1643329271872283E-2</v>
+        <v>4.0565112888972799E-2</v>
       </c>
       <c r="Z31" s="1">
-        <f>(J31-$J$9)-((P31-$P$9)/$Z$9+(Q31-$Q$9)/$AA$9)</f>
-        <v>7.0155423603233942</v>
+        <f>(J31-$J$30)-((P31-$P$30)/$Z$9+(Q31-$Q$30)/$AA$9)</f>
+        <v>3.4815667158502706</v>
       </c>
       <c r="AA31" s="1">
         <f>(J31-$J$9)-(P31-$P$30)/$AA$9</f>
-        <v>7.1696563627996746</v>
+        <v>9.9724079177246878</v>
       </c>
       <c r="AB31" s="1">
         <f>(H31-I31)^2</f>
-        <v>2.4274648094170366</v>
+        <v>0.91115134306058443</v>
       </c>
       <c r="AC31" s="7">
         <f>INDEX(LINEST(U31:U35,AB31:AB35),1)</f>
-        <v>1.1089535731565885</v>
+        <v>2.1986648997378939</v>
       </c>
       <c r="AD31" s="1">
         <f>AB31/Z31</f>
-        <v>0.34601242280933758</v>
+        <v>0.26170727647195535</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="0"/>
-        <v>0.92778118108544461</v>
+        <v>0.91693164098473612</v>
       </c>
       <c r="AF31" s="7">
         <f>INDEX(LINEST(U31:U35,Z31:Z35),1)</f>
-        <v>0.63848502895713777</v>
+        <v>0.28902119213934235</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>300.00138375862099</v>
+        <v>300.00063237930999</v>
       </c>
       <c r="B32">
-        <v>278.27878868965502</v>
+        <v>275.08272589655201</v>
       </c>
       <c r="C32">
-        <v>25.536447413793098</v>
+        <v>25.381421655172399</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
       <c r="E32">
-        <v>37.5337763850087</v>
+        <v>35.191511077714097</v>
       </c>
       <c r="F32">
-        <v>21.5686576896552</v>
+        <v>21.574543034482801</v>
       </c>
       <c r="G32">
-        <v>6.1937364320987696</v>
+        <v>3.5719268703703699</v>
       </c>
       <c r="H32">
-        <v>7.7210395123456799</v>
+        <v>6.8570182623456697</v>
       </c>
       <c r="I32">
-        <v>6.0198623086419696</v>
+        <v>5.8148740339506197</v>
       </c>
       <c r="J32">
-        <v>33.671507768518502</v>
+        <v>34.868177172839502</v>
       </c>
       <c r="K32">
-        <v>38.752493654321</v>
+        <v>34.508333333333397</v>
       </c>
       <c r="L32">
-        <v>300.08525925925898</v>
+        <v>300</v>
       </c>
       <c r="M32">
-        <v>8.2315338415609299E-2</v>
+        <v>7.7790852531505805E-2</v>
       </c>
       <c r="N32">
         <v>300</v>
@@ -22858,10 +22851,10 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>18.242496429012299</v>
+        <v>17.107038537036999</v>
       </c>
       <c r="Q32">
-        <v>0.30559910802469098</v>
+        <v>1.3347084135802501</v>
       </c>
       <c r="R32">
         <v>24</v>
@@ -22870,76 +22863,76 @@
         <v>359</v>
       </c>
       <c r="T32" s="6">
-        <v>42743.557337962964</v>
+        <v>42754.786851851852</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" ref="U32:U35" si="14">$F$30-F32</f>
-        <v>3.3843991724138007</v>
+        <v>2.4619367241378995</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="2"/>
-        <v>2.894003878401175</v>
+        <v>1.086064592777114</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" ref="Z32:Z35" si="15">(J32-$J$9)-((P32-$P$9)/$Z$9+(Q32-$Q$9)/$AA$9)</f>
-        <v>7.7841987366011516</v>
+        <f t="shared" ref="Z32:Z35" si="15">(J32-$J$30)-((P32-$P$30)/$Z$9+(Q32-$Q$30)/$AA$9)</f>
+        <v>4.4433740619939393</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ref="AA32:AA35" si="16">(J32-$J$9)-(P32-$P$30)/$AA$9</f>
-        <v>8.4429819910354844</v>
+        <v>11.934043690922646</v>
       </c>
       <c r="AB32" s="1">
         <f>(H32-I32)^2</f>
-        <v>2.894003878401175</v>
+        <v>1.086064592777114</v>
       </c>
       <c r="AD32" s="1">
         <f t="shared" ref="AD32:AD35" si="17">AB32/Z32</f>
-        <v>0.37177928985723668</v>
+        <v>0.24442339934120888</v>
       </c>
       <c r="AE32" s="1">
         <f t="shared" si="0"/>
-        <v>0.9275916837555529</v>
+        <v>0.91694048680786555</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>300.00373048275901</v>
+        <v>300.00008003448301</v>
       </c>
       <c r="B33">
-        <v>278.23110641379299</v>
+        <v>275.080164413793</v>
       </c>
       <c r="C33">
-        <v>25.5390804482759</v>
+        <v>25.353087172413801</v>
       </c>
       <c r="D33">
         <v>100</v>
       </c>
       <c r="E33">
-        <v>38.387083257239503</v>
+        <v>35.958304480896203</v>
       </c>
       <c r="F33">
-        <v>21.027504482758602</v>
+        <v>21.201687137931</v>
       </c>
       <c r="G33">
-        <v>7.2126161790123504</v>
+        <v>4.1375040493827102</v>
       </c>
       <c r="H33">
-        <v>8.3192620154320895</v>
+        <v>7.3755860370370403</v>
       </c>
       <c r="I33">
-        <v>6.4774911944444504</v>
+        <v>6.25295753703704</v>
       </c>
       <c r="J33">
-        <v>38.666134524691302</v>
+        <v>39.8653138858025</v>
       </c>
       <c r="K33">
-        <v>44.335113478395002</v>
+        <v>39.6287037037036</v>
       </c>
       <c r="L33">
-        <v>300.13394598765302</v>
+        <v>300</v>
       </c>
       <c r="M33">
-        <v>8.4319455426156806E-2</v>
+        <v>7.9584763180363005E-2</v>
       </c>
       <c r="N33">
         <v>300</v>
@@ -22948,10 +22941,10 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>21.560409969135801</v>
+        <v>19.724948148148101</v>
       </c>
       <c r="Q33">
-        <v>0.83890868518518602</v>
+        <v>1.1741479135802499</v>
       </c>
       <c r="R33">
         <v>25</v>
@@ -22960,76 +22953,76 @@
         <v>359</v>
       </c>
       <c r="T33" s="6">
-        <v>42743.599004629628</v>
+        <v>42754.828518518516</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="14"/>
-        <v>3.9255523793103997</v>
+        <v>2.8347926206897007</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="2"/>
-        <v>3.3921197570414821</v>
+        <v>1.2602947490122505</v>
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="15"/>
-        <v>8.6377253666621208</v>
+        <v>6.1226103257335325</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="16"/>
-        <v>9.869959779333545</v>
+        <v>14.11622383279844</v>
       </c>
       <c r="AB33" s="1">
         <f>(H33-I33)^2</f>
-        <v>3.3921197570414821</v>
+        <v>1.2602947490122505</v>
       </c>
       <c r="AD33" s="1">
         <f t="shared" si="17"/>
-        <v>0.39270984119657187</v>
+        <v>0.20584271772371177</v>
       </c>
       <c r="AE33" s="1">
         <f t="shared" si="0"/>
-        <v>0.92742548889665466</v>
+        <v>0.9169336367582781</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>300.00246027586201</v>
+        <v>300.00065558620702</v>
       </c>
       <c r="B34">
-        <v>278.191025413793</v>
+        <v>275.08492089655198</v>
       </c>
       <c r="C34">
-        <v>25.540384310344798</v>
+        <v>25.3642647241379</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
       <c r="E34">
-        <v>39.467122441607302</v>
+        <v>36.946578446358401</v>
       </c>
       <c r="F34">
-        <v>20.513723068965501</v>
+        <v>20.823208620689702</v>
       </c>
       <c r="G34">
-        <v>8.1661472253086398</v>
+        <v>4.7002387592592596</v>
       </c>
       <c r="H34">
-        <v>8.8367955030864298</v>
+        <v>7.8580993672839501</v>
       </c>
       <c r="I34">
-        <v>6.8711909382716003</v>
+        <v>6.6610007376543203</v>
       </c>
       <c r="J34">
-        <v>43.291035225308597</v>
+        <v>44.865015950617298</v>
       </c>
       <c r="K34">
-        <v>49.656550064814802</v>
+        <v>44.593518518518401</v>
       </c>
       <c r="L34">
-        <v>300.25242407407399</v>
+        <v>300</v>
       </c>
       <c r="M34">
-        <v>8.6753036401715306E-2</v>
+        <v>8.1858010831442299E-2</v>
       </c>
       <c r="N34">
         <v>300</v>
@@ -23038,10 +23031,10 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>24.655388487654299</v>
+        <v>22.346202814814799</v>
       </c>
       <c r="Q34">
-        <v>1.25584861111111</v>
+        <v>1.2557317993827199</v>
       </c>
       <c r="R34">
         <v>26</v>
@@ -23050,76 +23043,76 @@
         <v>359</v>
       </c>
       <c r="T34" s="6">
-        <v>42743.6406712963</v>
+        <v>42754.870185185187</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="14"/>
-        <v>4.4393337931035006</v>
+        <v>3.2132711379309988</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="2"/>
-        <v>3.8636013052208953</v>
+        <v>1.4330451290611375</v>
       </c>
       <c r="Z34" s="1">
         <f t="shared" si="15"/>
-        <v>9.4863696754037043</v>
+        <v>7.539581559936309</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" si="16"/>
-        <v>11.166926589070744</v>
+        <v>16.297372492595283</v>
       </c>
       <c r="AB34" s="1">
         <f>(H34-I34)^2</f>
-        <v>3.8636013052208953</v>
+        <v>1.4330451290611375</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="17"/>
-        <v>0.40727922666122274</v>
+        <v>0.19006958379176195</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="0"/>
-        <v>0.92729581336762146</v>
+        <v>0.91694773252755324</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>300.00133848275902</v>
+        <v>299.99943179310299</v>
       </c>
       <c r="B35">
-        <v>278.14561196551699</v>
+        <v>275.08217751724101</v>
       </c>
       <c r="C35">
-        <v>25.542107413793101</v>
+        <v>25.354191896551701</v>
       </c>
       <c r="D35">
         <v>100</v>
       </c>
       <c r="E35">
-        <v>40.697474495990399</v>
+        <v>38.118805959472603</v>
       </c>
       <c r="F35">
-        <v>20.0092739310345</v>
+        <v>20.4470130689655</v>
       </c>
       <c r="G35">
-        <v>9.1014325308641908</v>
+        <v>5.2584026080246904</v>
       </c>
       <c r="H35">
-        <v>9.3233036975308696</v>
+        <v>8.31160655555556</v>
       </c>
       <c r="I35">
-        <v>7.2454071944444403</v>
+        <v>7.0455150462963001</v>
       </c>
       <c r="J35">
-        <v>47.907024126543199</v>
+        <v>49.868950706790102</v>
       </c>
       <c r="K35">
-        <v>54.765789617284</v>
+        <v>49.732407407407301</v>
       </c>
       <c r="L35">
-        <v>300.25992716049302</v>
+        <v>300</v>
       </c>
       <c r="M35">
-        <v>8.9565047435030506E-2</v>
+        <v>8.45589623677383E-2</v>
       </c>
       <c r="N35">
         <v>300</v>
@@ -23128,10 +23121,10 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>27.737115114197501</v>
+        <v>25.215046466049401</v>
       </c>
       <c r="Q35">
-        <v>1.72151527777778</v>
+        <v>1.50640317901235</v>
       </c>
       <c r="R35">
         <v>27</v>
@@ -23140,55 +23133,55 @@
         <v>359</v>
       </c>
       <c r="T35" s="6">
-        <v>42743.682337962964</v>
+        <v>42754.911851851852</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="14"/>
-        <v>4.9437829310345016</v>
+        <v>3.5894666896552003</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="2"/>
-        <v>4.3176538775388114</v>
+        <v>1.6029877098183907</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="15"/>
-        <v>10.287957186090054</v>
+        <f>(J35-$J$30)-((P35-$P$30)/$Z$9+(Q35-$Q$30)/$AA$9)</f>
+        <v>8.4488523299149918</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="16"/>
-        <v>12.469230945635239</v>
+        <v>18.216529129160982</v>
       </c>
       <c r="AB35" s="1">
         <f>(H35-I35)^2</f>
-        <v>4.3176538775388114</v>
+        <v>1.6029877098183907</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" si="17"/>
-        <v>0.41968038935626045</v>
+        <v>0.18972845627123408</v>
       </c>
       <c r="AE35" s="1">
         <f t="shared" si="0"/>
-        <v>0.92714790331344443</v>
+        <v>0.91694232843398726</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>300.00000941379301</v>
+        <v>299.99944648275903</v>
       </c>
       <c r="B36">
-        <v>278.597231103448</v>
+        <v>275.19758872413797</v>
       </c>
       <c r="C36">
-        <v>25.532245586206901</v>
+        <v>25.318538586206898</v>
       </c>
       <c r="D36">
         <v>100</v>
       </c>
       <c r="E36">
-        <v>39.655088601217599</v>
+        <v>36.806476904466997</v>
       </c>
       <c r="F36">
-        <v>24.9408733793103</v>
+        <v>24.020291310344799</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -23200,16 +23193,16 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>2.2472110246913601</v>
+        <v>2.93370310493827</v>
       </c>
       <c r="K36">
-        <v>3.4164040586419802</v>
+        <v>0.50925925925925697</v>
       </c>
       <c r="L36">
-        <v>300.010183024691</v>
+        <v>300</v>
       </c>
       <c r="M36">
-        <v>8.68109422014052E-2</v>
+        <v>8.1960744150067905E-2</v>
       </c>
       <c r="N36">
         <v>300</v>
@@ -23218,10 +23211,10 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>-2.36751372222222</v>
+        <v>-2.4170805462963001</v>
       </c>
       <c r="Q36">
-        <v>-2.6427715956790099</v>
+        <v>-2.7645348703703698</v>
       </c>
       <c r="R36">
         <v>28</v>
@@ -23230,7 +23223,7 @@
         <v>359</v>
       </c>
       <c r="T36" s="6">
-        <v>42743.724004629628</v>
+        <v>42754.953518518516</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -23239,22 +23232,22 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>349.99984000000001</v>
+        <v>325.00059979310299</v>
       </c>
       <c r="B37">
-        <v>324.39731779310301</v>
+        <v>297.72894496551697</v>
       </c>
       <c r="C37">
-        <v>25.612046344827601</v>
+        <v>25.3496674137931</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37">
-        <v>37.749393460213497</v>
+        <v>35.062543788353203</v>
       </c>
       <c r="F37">
-        <v>31.305305034482799</v>
+        <v>27.006521275862099</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -23266,16 +23259,16 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.24508158333333</v>
+        <v>2.9388796003086401</v>
       </c>
       <c r="K37">
-        <v>3.4179000493827201</v>
+        <v>0.47222222222222099</v>
       </c>
       <c r="L37">
-        <v>300.01062515432301</v>
+        <v>300</v>
       </c>
       <c r="M37">
-        <v>8.1770253378079999E-2</v>
+        <v>7.7223234940855506E-2</v>
       </c>
       <c r="N37">
         <v>300</v>
@@ -23284,10 +23277,10 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>-2.4925535694444401</v>
+        <v>-2.73509894135803</v>
       </c>
       <c r="Q37">
-        <v>-2.7052968796296302</v>
+        <v>-3.2572296141975299</v>
       </c>
       <c r="R37">
         <v>29</v>
@@ -23296,7 +23289,7 @@
         <v>719</v>
       </c>
       <c r="T37" s="6">
-        <v>42743.807337962964</v>
+        <v>42755.036851851852</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
@@ -23305,43 +23298,43 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>349.999721103448</v>
+        <v>324.999847448276</v>
       </c>
       <c r="B38">
-        <v>324.569106586207</v>
+        <v>297.63251675862102</v>
       </c>
       <c r="C38">
-        <v>25.6249232068966</v>
+        <v>25.3439601034483</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
       <c r="E38">
-        <v>37.916653786211299</v>
+        <v>35.216183028194699</v>
       </c>
       <c r="F38">
-        <v>29.209881206896601</v>
+        <v>24.729996689655199</v>
       </c>
       <c r="G38">
-        <v>4.8054313209876502</v>
+        <v>3.16612321604938</v>
       </c>
       <c r="H38">
-        <v>7.0065037623456803</v>
+        <v>6.3145732685185196</v>
       </c>
       <c r="I38">
-        <v>5.5820852592592596</v>
+        <v>5.3005340216049399</v>
       </c>
       <c r="J38">
-        <v>28.989678342592601</v>
+        <v>29.8785088549383</v>
       </c>
       <c r="K38">
-        <v>33.6801048240741</v>
+        <v>29.1527777777777</v>
       </c>
       <c r="L38">
-        <v>300.08686296296298</v>
+        <v>300</v>
       </c>
       <c r="M38">
-        <v>8.2277965656392199E-2</v>
+        <v>7.7724198073183898E-2</v>
       </c>
       <c r="N38">
         <v>300</v>
@@ -23350,10 +23343,10 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>15.548615913580299</v>
+        <v>12.683516061728399</v>
       </c>
       <c r="Q38">
-        <v>-0.203876385802469</v>
+        <v>-1.4214560833333301</v>
       </c>
       <c r="R38">
         <v>30</v>
@@ -23362,96 +23355,96 @@
         <v>359</v>
       </c>
       <c r="T38" s="6">
-        <v>42743.849004629628</v>
+        <v>42755.078518518516</v>
       </c>
       <c r="U38" s="1">
         <f>$F$37-F38</f>
-        <v>2.0954238275861989</v>
+        <v>2.2765245862069001</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="2"/>
-        <v>2.0289680719349596</v>
+        <v>1.02827559428106</v>
       </c>
       <c r="W38" s="1">
         <f>INDEX(LINEST(U38:U42,V38:V42),1)</f>
-        <v>0.95998599185430078</v>
+        <v>2.1530697087681303</v>
       </c>
       <c r="X38" s="1">
         <f>INDEX(LINEST(U38:U42,G38:G42),1)</f>
-        <v>0.42959869498833597</v>
+        <v>0.71120394286742561</v>
       </c>
       <c r="Y38" s="1">
         <f>INDEX(LINEST(U38:U42,G38:G42),2)</f>
-        <v>4.9203301591556947E-2</v>
+        <v>1.6307701433384558E-2</v>
       </c>
       <c r="Z38" s="1">
-        <f>(J38-$J$9)-((P38-$P$9)/$Z$9+(Q38-$Q$9)/$AA$9)</f>
-        <v>6.5468381378356355</v>
+        <f>(J38-$J$37)-((P38-$P$37)/$Z$9+(Q38-$Q$37)/$AA$9)</f>
+        <v>4.4075258839937739</v>
       </c>
       <c r="AA38" s="1">
         <f>(J38-$J$9)-(P38-$P$37)/$AA$9</f>
-        <v>6.7011132115982583</v>
+        <v>10.409894777641064</v>
       </c>
       <c r="AB38" s="1">
         <f>(H38-I38)^2</f>
-        <v>2.0289680719349596</v>
+        <v>1.02827559428106</v>
       </c>
       <c r="AC38" s="7">
         <f>INDEX(LINEST(U38:U42,AB38:AB42),1)</f>
-        <v>0.95998599185430078</v>
+        <v>2.1530697087681303</v>
       </c>
       <c r="AD38" s="1">
         <f>AB38/Z38</f>
-        <v>0.30991572255454147</v>
+        <v>0.23329995588121485</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" si="0"/>
-        <v>0.92734104348121871</v>
+        <v>0.91579278912119944</v>
       </c>
       <c r="AF38" s="7">
         <f>INDEX(LINEST(U38:U42,Z38:Z42),1)</f>
-        <v>0.43865336562693757</v>
+        <v>0.51685147757351424</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>349.99811741379301</v>
+        <v>324.99990631034501</v>
       </c>
       <c r="B39">
-        <v>324.60066386206898</v>
+        <v>297.627489793103</v>
       </c>
       <c r="C39">
-        <v>25.623917034482801</v>
+        <v>25.327977034482799</v>
       </c>
       <c r="D39">
         <v>100</v>
       </c>
       <c r="E39">
-        <v>38.3108161507812</v>
+        <v>35.599614874032397</v>
       </c>
       <c r="F39">
-        <v>28.791875620689702</v>
+        <v>24.305138482758601</v>
       </c>
       <c r="G39">
-        <v>5.7206061851851899</v>
+        <v>3.7839056820987702</v>
       </c>
       <c r="H39">
-        <v>7.6203104444444403</v>
+        <v>6.8933157376543202</v>
       </c>
       <c r="I39">
-        <v>6.0577864259259302</v>
+        <v>5.7833765061728402</v>
       </c>
       <c r="J39">
-        <v>34.070967342592603</v>
+        <v>34.878610737654299</v>
       </c>
       <c r="K39">
-        <v>39.198403925925902</v>
+        <v>34.139814814814898</v>
       </c>
       <c r="L39">
-        <v>300.09211419753001</v>
+        <v>300</v>
       </c>
       <c r="M39">
-        <v>8.3517191629771906E-2</v>
+        <v>7.8686356762330406E-2</v>
       </c>
       <c r="N39">
         <v>300</v>
@@ -23460,10 +23453,10 @@
         <v>1</v>
       </c>
       <c r="P39">
-        <v>18.928920820987699</v>
+        <v>15.527126972222201</v>
       </c>
       <c r="Q39">
-        <v>0.33319561728395097</v>
+        <v>-1.1295073240740701</v>
       </c>
       <c r="R39">
         <v>31</v>
@@ -23472,76 +23465,76 @@
         <v>359</v>
       </c>
       <c r="T39" s="6">
-        <v>42743.8906712963</v>
+        <v>42755.120185185187</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" ref="U39:U42" si="18">$F$37-F39</f>
-        <v>2.5134294137930979</v>
+        <v>2.7013827931034982</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="2"/>
-        <v>2.4414813084472331</v>
+        <v>1.2319650975816985</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" ref="Z39:Z42" si="19">(J39-$J$9)-((P39-$P$9)/$Z$9+(Q39-$Q$9)/$AA$9)</f>
-        <v>7.4158939007455089</v>
+        <f t="shared" ref="Z39:Z42" si="19">(J39-$J$37)-((P39-$P$37)/$Z$9+(Q39-$Q$37)/$AA$9)</f>
+        <v>5.3022231556650752</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" ref="AA39:AA42" si="20">(J39-$J$9)-(P39-$P$37)/$AA$9</f>
-        <v>8.1476657520204121</v>
+        <v>12.352350520041149</v>
       </c>
       <c r="AB39" s="1">
         <f>(H39-I39)^2</f>
-        <v>2.4414813084472331</v>
+        <v>1.2319650975816985</v>
       </c>
       <c r="AD39" s="1">
         <f t="shared" ref="AD39:AD42" si="21">AB39/Z39</f>
-        <v>0.32922279378913372</v>
+        <v>0.23234878303177889</v>
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="0"/>
-        <v>0.92743545668362171</v>
+        <v>0.91577715566753459</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>349.99974648275901</v>
+        <v>325.00015358620698</v>
       </c>
       <c r="B40">
-        <v>324.635186586207</v>
+        <v>297.62238603448299</v>
       </c>
       <c r="C40">
-        <v>25.6276937931035</v>
+        <v>25.327518551724101</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
       <c r="E40">
-        <v>38.911292551606003</v>
+        <v>36.187272085854701</v>
       </c>
       <c r="F40">
-        <v>28.4020687586207</v>
+        <v>23.873951275862101</v>
       </c>
       <c r="G40">
-        <v>6.59447941049382</v>
+        <v>4.38701425617284</v>
       </c>
       <c r="H40">
-        <v>8.1686055679012401</v>
+        <v>7.4167836358024699</v>
       </c>
       <c r="I40">
-        <v>6.4872037283950599</v>
+        <v>6.2203675679012296</v>
       </c>
       <c r="J40">
-        <v>38.7863941574074</v>
+        <v>39.870899814814798</v>
       </c>
       <c r="K40">
-        <v>44.441631703703699</v>
+        <v>39.195370370370199</v>
       </c>
       <c r="L40">
-        <v>300.12804259259298</v>
+        <v>300</v>
       </c>
       <c r="M40">
-        <v>8.5200848718991307E-2</v>
+        <v>8.0074765423842301E-2</v>
       </c>
       <c r="N40">
         <v>300</v>
@@ -23550,10 +23543,10 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>22.0374867253087</v>
+        <v>18.379565777777799</v>
       </c>
       <c r="Q40">
-        <v>0.79019670679012399</v>
+        <v>-0.88574966666666699</v>
       </c>
       <c r="R40">
         <v>32</v>
@@ -23562,76 +23555,76 @@
         <v>359</v>
       </c>
       <c r="T40" s="6">
-        <v>42743.932337962964</v>
+        <v>42755.161851851852</v>
       </c>
       <c r="U40" s="1">
         <f t="shared" si="18"/>
-        <v>2.9032362758620991</v>
+        <v>3.1325699999999976</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="2"/>
-        <v>2.827112145894767</v>
+        <v>1.4314114075322653</v>
       </c>
       <c r="Z40" s="1">
         <f t="shared" si="19"/>
-        <v>8.297377711445062</v>
+        <v>6.2291554841198256</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="20"/>
-        <v>9.520548583694346</v>
+        <v>14.277501096604237</v>
       </c>
       <c r="AB40" s="1">
         <f>(H40-I40)^2</f>
-        <v>2.827112145894767</v>
+        <v>1.4314114075322653</v>
       </c>
       <c r="AD40" s="1">
         <f t="shared" si="21"/>
-        <v>0.34072356884454769</v>
+        <v>0.22979221038572656</v>
       </c>
       <c r="AE40" s="1">
         <f t="shared" si="0"/>
-        <v>0.92752977637427669</v>
+        <v>0.91576075503465271</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>349.99991579310301</v>
+        <v>325.000106344828</v>
       </c>
       <c r="B41">
-        <v>324.66303548275903</v>
+        <v>297.61013803448299</v>
       </c>
       <c r="C41">
-        <v>25.625756827586201</v>
+        <v>25.336544551724099</v>
       </c>
       <c r="D41">
         <v>100</v>
       </c>
       <c r="E41">
-        <v>39.707185155241802</v>
+        <v>36.963155045172201</v>
       </c>
       <c r="F41">
-        <v>28.024795517241401</v>
+        <v>23.448779862068999</v>
       </c>
       <c r="G41">
-        <v>7.4982224475308596</v>
+        <v>4.9913148703703696</v>
       </c>
       <c r="H41">
-        <v>8.6968600493827104</v>
+        <v>7.9059026574074096</v>
       </c>
       <c r="I41">
-        <v>6.8990200246913602</v>
+        <v>6.6284062530864096</v>
       </c>
       <c r="J41">
-        <v>43.6172949506173</v>
+        <v>44.865292743827197</v>
       </c>
       <c r="K41">
-        <v>49.776670895061699</v>
+        <v>44.215740740740699</v>
       </c>
       <c r="L41">
-        <v>300.24321697531002</v>
+        <v>300</v>
       </c>
       <c r="M41">
-        <v>8.7298380061811606E-2</v>
+        <v>8.1857179635357505E-2</v>
       </c>
       <c r="N41">
         <v>300</v>
@@ -23640,10 +23633,10 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>25.324438438271599</v>
+        <v>21.2087581635802</v>
       </c>
       <c r="Q41">
-        <v>1.17524266666667</v>
+        <v>-0.48233199382716002</v>
       </c>
       <c r="R41">
         <v>33</v>
@@ -23652,76 +23645,76 @@
         <v>359</v>
       </c>
       <c r="T41" s="6">
-        <v>42743.974004629628</v>
+        <v>42755.203518518516</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="18"/>
-        <v>3.2805095172413985</v>
+        <v>3.5577414137930994</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" si="2"/>
-        <v>3.2322287543821946</v>
+        <v>1.6319970630530838</v>
       </c>
       <c r="Z41" s="1">
         <f t="shared" si="19"/>
-        <v>9.1798939102039512</v>
+        <v>7.0175094548155812</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="20"/>
-        <v>10.817092696298985</v>
+        <v>16.229751675291464</v>
       </c>
       <c r="AB41" s="1">
         <f>(H41-I41)^2</f>
-        <v>3.2322287543821946</v>
+        <v>1.6319970630530838</v>
       </c>
       <c r="AD41" s="1">
         <f t="shared" si="21"/>
-        <v>0.35209870462548554</v>
+        <v>0.23256072165790512</v>
       </c>
       <c r="AE41" s="1">
         <f t="shared" si="0"/>
-        <v>0.9276088959823594</v>
+        <v>0.91572320200632795</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>350.00213520689698</v>
+        <v>325.00022834482797</v>
       </c>
       <c r="B42">
-        <v>324.69684472413797</v>
+        <v>297.603400931034</v>
       </c>
       <c r="C42">
-        <v>25.624899068965501</v>
+        <v>25.351444379310301</v>
       </c>
       <c r="D42">
         <v>100</v>
       </c>
       <c r="E42">
-        <v>40.688151068453799</v>
+        <v>37.9051106650261</v>
       </c>
       <c r="F42">
-        <v>27.6578096551724</v>
+        <v>23.007562034482799</v>
       </c>
       <c r="G42">
-        <v>8.4215795925925896</v>
+        <v>5.5860867469135798</v>
       </c>
       <c r="H42">
-        <v>9.2021422932098904</v>
+        <v>8.3630081388889099</v>
       </c>
       <c r="I42">
-        <v>7.2918090833333302</v>
+        <v>7.0113342777777801</v>
       </c>
       <c r="J42">
-        <v>48.556013654320999</v>
+        <v>49.863953388888902</v>
       </c>
       <c r="K42">
-        <v>55.2881323518519</v>
+        <v>49.343518518518401</v>
       </c>
       <c r="L42">
-        <v>300.28396944444398</v>
+        <v>300</v>
       </c>
       <c r="M42">
-        <v>8.9752317623425795E-2</v>
+        <v>8.4004956463124503E-2</v>
       </c>
       <c r="N42">
         <v>300</v>
@@ -23730,10 +23723,10 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>28.5625254135802</v>
+        <v>24.0979774351852</v>
       </c>
       <c r="Q42">
-        <v>1.6961105030864201</v>
+        <v>-4.50354043209878E-2</v>
       </c>
       <c r="R42">
         <v>34</v>
@@ -23742,55 +23735,55 @@
         <v>359</v>
       </c>
       <c r="T42" s="6">
-        <v>42744.0156712963</v>
+        <v>42755.245185185187</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" si="18"/>
-        <v>3.6474953793103992</v>
+        <v>3.9989592413792998</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" si="2"/>
-        <v>3.6493729727572819</v>
+        <v>1.8270222268110701</v>
       </c>
       <c r="Z42" s="1">
         <f t="shared" si="19"/>
-        <v>10.076725719576096</v>
+        <v>7.6936663511715082</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="20"/>
-        <v>12.273997448057948</v>
+        <v>18.12172493153059</v>
       </c>
       <c r="AB42" s="1">
         <f>(H42-I42)^2</f>
-        <v>3.6493729727572819</v>
+        <v>1.8270222268110701</v>
       </c>
       <c r="AD42" s="1">
         <f t="shared" si="21"/>
-        <v>0.3621586092859142</v>
+        <v>0.23747094602469612</v>
       </c>
       <c r="AE42" s="1">
         <f t="shared" si="0"/>
-        <v>0.92769961112437138</v>
+        <v>0.9157021287236583</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>350.00011789655201</v>
+        <v>324.99938651724102</v>
       </c>
       <c r="B43">
-        <v>324.41689220689699</v>
+        <v>297.76958924137898</v>
       </c>
       <c r="C43">
-        <v>25.611088379310299</v>
+        <v>25.326950724137902</v>
       </c>
       <c r="D43">
         <v>100</v>
       </c>
       <c r="E43">
-        <v>39.849807325469001</v>
+        <v>36.861077946032097</v>
       </c>
       <c r="F43">
-        <v>31.277698137931001</v>
+        <v>26.995895655172401</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -23802,16 +23795,16 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2.06395966049383</v>
+        <v>2.96389938271605</v>
       </c>
       <c r="K43">
-        <v>3.3867463549382699</v>
+        <v>0.42777777777777498</v>
       </c>
       <c r="L43">
-        <v>300.01124537036998</v>
+        <v>300</v>
       </c>
       <c r="M43">
-        <v>8.7531602999924601E-2</v>
+        <v>8.1944410700479406E-2</v>
       </c>
       <c r="N43">
         <v>300</v>
@@ -23820,10 +23813,10 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>-2.3838620462962901</v>
+        <v>-3.1097288919753101</v>
       </c>
       <c r="Q43">
-        <v>-2.6745028641975299</v>
+        <v>-4.0579869969135798</v>
       </c>
       <c r="R43">
         <v>35</v>
@@ -23832,7 +23825,7 @@
         <v>359</v>
       </c>
       <c r="T43" s="6">
-        <v>42744.057337962964</v>
+        <v>42755.286851851852</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
@@ -23840,22 +23833,22 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>400.00075234482802</v>
+        <v>349.998637275862</v>
       </c>
       <c r="B44">
-        <v>370.08207965517198</v>
+        <v>320.27860348275902</v>
       </c>
       <c r="C44">
-        <v>25.7094384827586</v>
+        <v>25.4298415172414</v>
       </c>
       <c r="D44">
         <v>100</v>
       </c>
       <c r="E44">
-        <v>38.290309214732197</v>
+        <v>38.182906910050498</v>
       </c>
       <c r="F44">
-        <v>38.346455379310299</v>
+        <v>30.164827965517201</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -23867,16 +23860,16 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2.0618505370370399</v>
+        <v>2.9493816666666701</v>
       </c>
       <c r="K44">
-        <v>3.39319936882716</v>
+        <v>0.51818181818181597</v>
       </c>
       <c r="L44">
-        <v>300.01120540123702</v>
+        <v>300</v>
       </c>
       <c r="M44">
-        <v>8.3395043406395905E-2</v>
+        <v>8.5544474988217795E-2</v>
       </c>
       <c r="N44">
         <v>300</v>
@@ -23885,19 +23878,19 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>-2.5169740138888899</v>
+        <v>-2.57340097643098</v>
       </c>
       <c r="Q44">
-        <v>-2.7667231944444399</v>
+        <v>-3.1689128552188599</v>
       </c>
       <c r="R44">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S44">
-        <v>719</v>
+        <v>330</v>
       </c>
       <c r="T44" s="6">
-        <v>42744.1406712963</v>
+        <v>42755.533495370371</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
@@ -23905,43 +23898,43 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>400.00000620689701</v>
+        <v>350.01040851724099</v>
       </c>
       <c r="B45">
-        <v>370.37298482758598</v>
+        <v>320.133282862069</v>
       </c>
       <c r="C45">
-        <v>25.708731448275898</v>
+        <v>25.395329482758601</v>
       </c>
       <c r="D45">
         <v>100</v>
       </c>
       <c r="E45">
-        <v>38.403183364211202</v>
+        <v>36.935109504749903</v>
       </c>
       <c r="F45">
-        <v>36.650046827586202</v>
+        <v>28.576955379310299</v>
       </c>
       <c r="G45">
-        <v>4.6324746419753096</v>
+        <v>2.8065630956790102</v>
       </c>
       <c r="H45">
-        <v>6.9306950339506201</v>
+        <v>6.2517900740740702</v>
       </c>
       <c r="I45">
-        <v>5.5501040740740804</v>
+        <v>5.3634654197530898</v>
       </c>
       <c r="J45">
-        <v>28.974409941358001</v>
+        <v>29.939885172839499</v>
       </c>
       <c r="K45">
-        <v>24.5312051944444</v>
+        <v>29.0657407407408</v>
       </c>
       <c r="L45">
-        <v>300.006666049383</v>
+        <v>300</v>
       </c>
       <c r="M45">
-        <v>8.3904099585645001E-2</v>
+        <v>8.2300196862271802E-2</v>
       </c>
       <c r="N45">
         <v>300</v>
@@ -23950,108 +23943,108 @@
         <v>1</v>
       </c>
       <c r="P45">
-        <v>15.7494281512346</v>
+        <v>12.831336345679</v>
       </c>
       <c r="Q45">
-        <v>-0.161081256172839</v>
+        <v>-1.7342667870370401</v>
       </c>
       <c r="R45">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S45">
         <v>359</v>
       </c>
       <c r="T45" s="6">
-        <v>42744.182337962964</v>
+        <v>42755.328518518516</v>
       </c>
       <c r="U45" s="1">
         <f>$F$44-F45</f>
-        <v>1.6964085517240974</v>
+        <v>1.5878725862069025</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.9060313984928254</v>
+        <f>(H45-I45)^2</f>
+        <v>0.78912069147448938</v>
       </c>
       <c r="W45" s="1">
         <f>INDEX(LINEST(U45:U49,V45:V49),1)</f>
-        <v>0.83803693521867639</v>
+        <v>2.3593866980425258</v>
       </c>
       <c r="X45" s="1">
         <f>INDEX(LINEST(U45:U49,G45:G49),1)</f>
-        <v>0.35850910404524527</v>
+        <v>0.70426469922855406</v>
       </c>
       <c r="Y45" s="1">
         <f>INDEX(LINEST(U45:U49,G45:G49),2)</f>
-        <v>3.1421420656937649E-2</v>
+        <v>-0.30611477943502408</v>
       </c>
       <c r="Z45" s="1">
         <f>(J45-$J$9)-((P45-$P$9)/$Z$9+(Q45-$Q$9)/$AA$9)</f>
-        <v>6.2696263309193903</v>
+        <v>8.3512926082684551</v>
       </c>
       <c r="AA45" s="1">
-        <f>(J45-$J$9)-(P45-$P$44)/$AA$9</f>
-        <v>6.4436591306875819</v>
+        <f>(J45-$J$9)-(P45-$P$45)/$AA$9</f>
+        <v>27.050427012839499</v>
       </c>
       <c r="AB45" s="1">
         <f>(H45-I45)^2</f>
-        <v>1.9060313984928254</v>
+        <v>0.78912069147448938</v>
       </c>
       <c r="AC45" s="7">
         <f>INDEX(LINEST(U45:U49,AB45:AB49),1)</f>
-        <v>0.83803693521867639</v>
+        <v>2.3593866980425258</v>
       </c>
       <c r="AD45" s="1">
         <f>AB45/Z45</f>
-        <v>0.30401036647000956</v>
+        <v>9.4490844530246254E-2</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92593244770104655</v>
+        <f t="shared" ref="AE45:AE48" si="22">B45/A45</f>
+        <v>0.91463932235118006</v>
       </c>
       <c r="AF45" s="7">
         <f>INDEX(LINEST(U45:U49,Z45:Z49),1)</f>
-        <v>0.45223449552907763</v>
+        <v>1.0218972088134919</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>400.00042837930999</v>
+        <v>350.00000210344803</v>
       </c>
       <c r="B46">
-        <v>370.43184158620699</v>
+        <v>320.491597241379</v>
       </c>
       <c r="C46">
-        <v>25.7113114827586</v>
+        <v>25.402088965517201</v>
       </c>
       <c r="D46">
         <v>100</v>
       </c>
       <c r="E46">
-        <v>38.6970159004332</v>
+        <v>37.201723711822801</v>
       </c>
       <c r="F46">
-        <v>36.355793965517201</v>
+        <v>28.029332413793099</v>
       </c>
       <c r="G46">
-        <v>5.4830449907407397</v>
+        <v>3.3816142191358001</v>
       </c>
       <c r="H46">
-        <v>7.5217541975308704</v>
+        <v>6.8130949876543303</v>
       </c>
       <c r="I46">
-        <v>6.0139688950617201</v>
+        <v>5.8287664537037003</v>
       </c>
       <c r="J46">
-        <v>33.670870117283997</v>
+        <v>34.907181703703699</v>
       </c>
       <c r="K46">
-        <v>4.7305409135802501</v>
+        <v>34.052777777777898</v>
       </c>
       <c r="L46">
-        <v>300.00510432098702</v>
+        <v>300</v>
       </c>
       <c r="M46">
-        <v>8.4788224953649599E-2</v>
+        <v>8.3041936533647401E-2</v>
       </c>
       <c r="N46">
         <v>300</v>
@@ -24060,88 +24053,88 @@
         <v>1</v>
       </c>
       <c r="P46">
-        <v>19.041757651234601</v>
+        <v>15.789111064814801</v>
       </c>
       <c r="Q46">
-        <v>0.18551814506172801</v>
+        <v>-1.24375011419753</v>
       </c>
       <c r="R46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S46">
         <v>359</v>
       </c>
       <c r="T46" s="6">
-        <v>42744.224004629628</v>
+        <v>42755.370185185187</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" ref="U46:U49" si="22">$F$44-F46</f>
-        <v>1.9906614137930987</v>
+        <f t="shared" ref="U46:U49" si="23">$F$44-F46</f>
+        <v>2.1354955517241017</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2734165183419872</v>
+        <f t="shared" ref="V45:V48" si="24">(H46-I46)^2</f>
+        <v>0.96890266274939663</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" ref="Z46:Z49" si="23">(J46-$J$9)-((P46-$P$9)/$Z$9+(Q46-$Q$9)/$AA$9)</f>
-        <v>7.0532597313243421</v>
+        <f t="shared" ref="Z46:Z48" si="25">(J46-$J$9)-((P46-$P$9)/$Z$9+(Q46-$Q$9)/$AA$9)</f>
+        <v>8.847452230995124</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" ref="AA46:AA49" si="24">(J46-$J$9)-(P46-$P$44)/$AA$9</f>
-        <v>7.5999800593017497</v>
+        <f t="shared" ref="AA46:AA48" si="26">(J46-$J$9)-(P46-$P$45)/$AA$9</f>
+        <v>28.83732061990176</v>
       </c>
       <c r="AB46" s="1">
         <f>(H46-I46)^2</f>
-        <v>2.2734165183419872</v>
+        <v>0.96890266274939663</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" ref="AD46:AD49" si="25">AB46/Z46</f>
-        <v>0.32232139534653481</v>
+        <f t="shared" ref="AD46:AD48" si="27">AB46/Z46</f>
+        <v>0.10951205357798451</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92607861218322529</v>
+        <f t="shared" si="22"/>
+        <v>0.91569027232934885</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>399.99982855172402</v>
+        <v>349.99938851724102</v>
       </c>
       <c r="B47">
-        <v>370.485071689655</v>
+        <v>320.53358410344799</v>
       </c>
       <c r="C47">
-        <v>25.7089094827586</v>
+        <v>25.412573758620699</v>
       </c>
       <c r="D47">
         <v>100</v>
       </c>
       <c r="E47">
-        <v>39.177556314839002</v>
+        <v>37.652146091109699</v>
       </c>
       <c r="F47">
-        <v>36.012317827586202</v>
+        <v>27.663516000000001</v>
       </c>
       <c r="G47">
-        <v>6.3916950740740699</v>
+        <v>3.89591198765432</v>
       </c>
       <c r="H47">
-        <v>8.1061536388888804</v>
+        <v>7.3242777592592603</v>
       </c>
       <c r="I47">
-        <v>6.4725998456790101</v>
+        <v>6.2702055771604899</v>
       </c>
       <c r="J47">
-        <v>38.697392895061697</v>
+        <v>39.831929570987597</v>
       </c>
       <c r="K47">
-        <v>23.831888404320999</v>
+        <v>39.112037037036799</v>
       </c>
       <c r="L47">
-        <v>300.12887129629701</v>
+        <v>300</v>
       </c>
       <c r="M47">
-        <v>8.6051909787062397E-2</v>
+        <v>8.4101847763555296E-2</v>
       </c>
       <c r="N47">
         <v>300</v>
@@ -24150,88 +24143,88 @@
         <v>1</v>
       </c>
       <c r="P47">
-        <v>22.460940373456801</v>
+        <v>18.785422197530899</v>
       </c>
       <c r="Q47">
-        <v>0.73056979938271605</v>
+        <v>-0.77604171604938199</v>
       </c>
       <c r="R47">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S47">
         <v>359</v>
       </c>
       <c r="T47" s="6">
-        <v>42744.2656712963</v>
+        <v>42755.411851851852</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="22"/>
-        <v>2.3341375517240976</v>
+        <f t="shared" si="23"/>
+        <v>2.5013119655171998</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="2"/>
-        <v>2.6684979953103554</v>
+        <f t="shared" si="24"/>
+        <v>1.1110681650744634</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" si="23"/>
-        <v>7.8171648999158201</v>
+        <f t="shared" si="25"/>
+        <v>9.2742063319176147</v>
       </c>
       <c r="AA47" s="1">
-        <f t="shared" si="24"/>
-        <v>8.9499622755501989</v>
+        <f t="shared" si="26"/>
+        <v>30.54022855953394</v>
       </c>
       <c r="AB47" s="1">
         <f>(H47-I47)^2</f>
-        <v>2.6684979953103554</v>
+        <v>1.1110681650744634</v>
       </c>
       <c r="AD47" s="1">
-        <f t="shared" si="25"/>
-        <v>0.34136391255339787</v>
+        <f t="shared" si="27"/>
+        <v>0.11980196744714104</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92621307621822524</v>
+        <f t="shared" si="22"/>
+        <v>0.91581184030456808</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>399.99990731034501</v>
+        <v>350.00021562069003</v>
       </c>
       <c r="B48">
-        <v>370.54279727586197</v>
+        <v>320.57571837930999</v>
       </c>
       <c r="C48">
-        <v>25.713760172413799</v>
+        <v>25.448770344827601</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
       <c r="E48">
-        <v>39.818348840642102</v>
+        <v>38.267867073153496</v>
       </c>
       <c r="F48">
-        <v>35.742476689655199</v>
+        <v>27.3187525172414</v>
       </c>
       <c r="G48">
-        <v>7.2331738333333302</v>
+        <v>4.4445756728395001</v>
       </c>
       <c r="H48">
-        <v>8.6099026265432101</v>
+        <v>7.8062071327160503</v>
       </c>
       <c r="I48">
-        <v>6.8682259876543297</v>
+        <v>6.6772226419753098</v>
       </c>
       <c r="J48">
-        <v>43.330605419753098</v>
+        <v>44.823759620370403</v>
       </c>
       <c r="K48">
-        <v>49.612487728395102</v>
+        <v>44.160185185185199</v>
       </c>
       <c r="L48">
-        <v>300.21782962962902</v>
+        <v>300</v>
       </c>
       <c r="M48">
-        <v>8.7634312142528301E-2</v>
+        <v>8.5515263106113806E-2</v>
       </c>
       <c r="N48">
         <v>300</v>
@@ -24240,88 +24233,88 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>25.7688187376543</v>
+        <v>21.7506160555556</v>
       </c>
       <c r="Q48">
-        <v>1.1778226975308601</v>
+        <v>-0.26111006172839601</v>
       </c>
       <c r="R48">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S48">
         <v>359</v>
       </c>
       <c r="T48" s="6">
-        <v>42744.307337962964</v>
+        <v>42755.453518518516</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="22"/>
-        <v>2.6039786896551007</v>
+        <f t="shared" si="23"/>
+        <v>2.8460754482758013</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0334375144512675</v>
+        <f t="shared" si="24"/>
+        <v>1.2746059803331291</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" si="23"/>
-        <v>8.4126018736979233</v>
+        <f t="shared" si="25"/>
+        <v>9.7587546197180473</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="24"/>
-        <v>10.026316344115255</v>
+        <f t="shared" si="26"/>
+        <v>32.343678116417074</v>
       </c>
       <c r="AB48" s="1">
         <f>(H48-I48)^2</f>
-        <v>3.0334375144512675</v>
+        <v>1.2746059803331291</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" si="25"/>
-        <v>0.3605825593548338</v>
+        <f t="shared" si="27"/>
+        <v>0.13061154112408202</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9263572078489799</v>
+        <f t="shared" si="22"/>
+        <v>0.91593005967382435</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>400.000098965517</v>
+        <v>350.00025255172397</v>
       </c>
       <c r="B49">
-        <v>370.59560420689701</v>
+        <v>320.597446827586</v>
       </c>
       <c r="C49">
-        <v>25.7304335862069</v>
+        <v>25.457336620689599</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
       <c r="E49">
-        <v>40.607320853685998</v>
+        <v>39.041878205784002</v>
       </c>
       <c r="F49">
-        <v>35.431890482758597</v>
+        <v>26.997334551724101</v>
       </c>
       <c r="G49">
-        <v>8.0095555246913595</v>
+        <v>5.0219711388888904</v>
       </c>
       <c r="H49">
-        <v>9.0750750432098908</v>
+        <v>8.2686646944444497</v>
       </c>
       <c r="I49">
-        <v>7.2465497592592598</v>
+        <v>7.0622505987654298</v>
       </c>
       <c r="J49">
-        <v>47.935065555555603</v>
+        <v>49.818977484567903</v>
       </c>
       <c r="K49">
-        <v>54.951519956790101</v>
+        <v>49.464814814814503</v>
       </c>
       <c r="L49">
-        <v>300.32015154321101</v>
+        <v>300</v>
       </c>
       <c r="M49">
-        <v>8.9505105053105799E-2</v>
+        <v>8.7260802116256697E-2</v>
       </c>
       <c r="N49">
         <v>300</v>
@@ -24330,67 +24323,67 @@
         <v>1</v>
       </c>
       <c r="P49">
-        <v>28.979226691358001</v>
+        <v>24.960856533950601</v>
       </c>
       <c r="Q49">
-        <v>1.758114</v>
+        <v>0.51082024074074095</v>
       </c>
       <c r="R49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S49">
         <v>359</v>
       </c>
       <c r="T49" s="6">
-        <v>42744.349004629628</v>
+        <v>42755.495185185187</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="22"/>
-        <v>2.9145648965517026</v>
+        <f t="shared" si="23"/>
+        <v>3.1674934137930997</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="2"/>
-        <v>3.3435047140467358</v>
+        <v>1.4554349702530274</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="23"/>
-        <v>8.9410413039382419</v>
+        <f t="shared" ref="Z47:Z50" si="28">(J49-$J$9)-((P49-$P$9)/$Z$9+(Q49-$Q$9)/$AA$9)</f>
+        <v>9.6436192627553936</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="24"/>
-        <v>11.17872491679551</v>
+        <f t="shared" ref="AA47:AA50" si="29">(J49-$J$9)-(P49-$P$45)/$AA$9</f>
+        <v>33.887024498469415</v>
       </c>
       <c r="AB49" s="1">
         <f>(H49-I49)^2</f>
-        <v>3.3435047140467358</v>
+        <v>1.4554349702530274</v>
       </c>
       <c r="AD49" s="1">
-        <f t="shared" si="25"/>
-        <v>0.373950259303022</v>
+        <f t="shared" ref="AD47:AD50" si="30">AB49/Z49</f>
+        <v>0.15092206884131773</v>
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="0"/>
-        <v>0.92648878129113943</v>
+        <v>0.91599204426347447</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>399.99946848275903</v>
+        <v>349.998637275862</v>
       </c>
       <c r="B50">
-        <v>370.06678506896498</v>
+        <v>320.27860348275902</v>
       </c>
       <c r="C50">
-        <v>25.7205026551724</v>
+        <v>25.4298415172414</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
       <c r="E50">
-        <v>39.907809165143398</v>
+        <v>38.182906910050498</v>
       </c>
       <c r="F50">
-        <v>38.321146793103402</v>
+        <v>30.164827965517201</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -24402,16 +24395,16 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2.28022873148148</v>
+        <v>2.9493816666666701</v>
       </c>
       <c r="K50">
-        <v>3.39810651234568</v>
+        <v>0.51818181818181597</v>
       </c>
       <c r="L50">
-        <v>300.01262777777703</v>
+        <v>300</v>
       </c>
       <c r="M50">
-        <v>8.7653634466233504E-2</v>
+        <v>8.5544474988217795E-2</v>
       </c>
       <c r="N50">
         <v>300</v>
@@ -24420,11 +24413,56 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>-2.2744950030864199</v>
+        <v>-2.57340097643098</v>
       </c>
       <c r="Q50">
-        <v>-2.5751884660493798</v>
-      </c>
+        <v>-3.1689128552188599</v>
+      </c>
+      <c r="R50">
+        <v>41</v>
+      </c>
+      <c r="S50">
+        <v>330</v>
+      </c>
+      <c r="T50" s="6">
+        <v>42755.533495370371</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="28"/>
+        <v>3.4430690457496</v>
+      </c>
+      <c r="AA50" s="1">
+        <f t="shared" si="29"/>
+        <v>16.624157186354822</v>
+      </c>
+      <c r="AB50" s="1">
+        <f>(H50-I50)^2</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91508528711876602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29726,7 +29764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
